--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772E3683-5240-4528-9039-CA81AD0E0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABB46E-A94E-4403-B182-7D59440EA6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="269">
   <si>
     <t>PERIOD</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/21,23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1596,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K436" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1922,12 +1925,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K436"/>
+  <dimension ref="A2:K437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A277" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A283" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
+      <selection pane="bottomLeft" activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,7 +2095,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.918000000000063</v>
+        <v>19.168000000000063</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2102,7 +2105,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>24.039999999999992</v>
+        <v>21.289999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5880,7 +5883,7 @@
       <c r="D174" s="39"/>
       <c r="E174" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.918000000000063</v>
+        <v>19.168000000000063</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="13" t="str">
@@ -8562,25 +8565,33 @@
       <c r="A292" s="40">
         <v>44986</v>
       </c>
-      <c r="B292" s="20"/>
-      <c r="C292" s="13"/>
+      <c r="B292" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D292" s="39"/>
       <c r="E292" s="9"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H292" s="39"/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H292" s="39">
+        <v>3</v>
+      </c>
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
-      <c r="K292" s="20"/>
+      <c r="K292" s="20" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B293" s="20"/>
+      <c r="A293" s="40"/>
+      <c r="B293" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C293" s="13"/>
       <c r="D293" s="39"/>
       <c r="E293" s="9"/>
@@ -8589,14 +8600,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H293" s="39"/>
+      <c r="H293" s="39">
+        <v>1</v>
+      </c>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
-      <c r="K293" s="20"/>
+      <c r="K293" s="50">
+        <v>45016</v>
+      </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -8614,7 +8629,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -8632,7 +8647,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -8650,7 +8665,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -8668,7 +8683,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -8686,7 +8701,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -8704,7 +8719,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -8722,7 +8737,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -8740,7 +8755,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -8758,7 +8773,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -8776,7 +8791,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -8794,7 +8809,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -8812,7 +8827,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -8830,7 +8845,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -8848,7 +8863,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -8866,7 +8881,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -8884,7 +8899,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -8902,7 +8917,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -8920,7 +8935,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -8938,7 +8953,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -8956,7 +8971,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -8974,7 +8989,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -8992,7 +9007,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9010,7 +9025,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9028,7 +9043,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -9046,7 +9061,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9064,7 +9079,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -9082,7 +9097,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9100,7 +9115,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -9118,7 +9133,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9136,7 +9151,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -9154,7 +9169,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9172,7 +9187,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -9190,7 +9205,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -9208,7 +9223,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -9226,7 +9241,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -9244,7 +9259,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -9262,7 +9277,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -9280,7 +9295,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -9298,7 +9313,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -9316,7 +9331,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -9334,7 +9349,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -9352,7 +9367,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -9370,7 +9385,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -9388,7 +9403,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -9406,7 +9421,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -9424,7 +9439,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -9442,7 +9457,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -9460,7 +9475,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -9478,7 +9493,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -9496,7 +9511,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -9514,7 +9529,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -9532,7 +9547,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -9550,7 +9565,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -9568,7 +9583,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -9586,7 +9601,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -9604,7 +9619,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -9622,7 +9637,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -9640,7 +9655,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -9658,7 +9673,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9676,7 +9691,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -9694,7 +9709,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -9712,7 +9727,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -9730,7 +9745,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -9748,7 +9763,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -9766,7 +9781,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -9784,7 +9799,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -9802,7 +9817,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -9820,7 +9835,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -9837,7 +9852,9 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="40"/>
+      <c r="A363" s="40">
+        <v>47119</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -11005,20 +11022,36 @@
       <c r="K435" s="20"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A436" s="41"/>
-      <c r="B436" s="15"/>
-      <c r="C436" s="42"/>
-      <c r="D436" s="43"/>
+      <c r="A436" s="40"/>
+      <c r="B436" s="20"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="39"/>
       <c r="E436" s="9"/>
-      <c r="F436" s="15"/>
+      <c r="F436" s="20"/>
       <c r="G436" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H436" s="43"/>
+      <c r="H436" s="39"/>
       <c r="I436" s="9"/>
-      <c r="J436" s="12"/>
-      <c r="K436" s="15"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="20"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="41"/>
+      <c r="B437" s="15"/>
+      <c r="C437" s="42"/>
+      <c r="D437" s="43"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="15"/>
+      <c r="G437" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H437" s="43"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="12"/>
+      <c r="K437" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABB46E-A94E-4403-B182-7D59440EA6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="269">
   <si>
     <t>PERIOD</t>
   </si>
@@ -906,7 +905,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1550,7 +1549,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1596,25 +1594,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1921,34 +1919,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K437"/>
+  <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A283" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A283" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="B294" sqref="B294"/>
+      <selection pane="bottomLeft" activeCell="B295" sqref="B295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +1969,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1991,7 +1989,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2013,7 +2011,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2021,7 +2019,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2034,7 +2032,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2051,7 +2049,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2105,12 +2103,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>21.289999999999992</v>
+        <v>20.289999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2132,7 +2130,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>39965</v>
       </c>
@@ -2152,7 +2150,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>39995</v>
       </c>
@@ -2172,7 +2170,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40026</v>
       </c>
@@ -2192,7 +2190,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40057</v>
       </c>
@@ -2212,7 +2210,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>40087</v>
       </c>
@@ -2232,7 +2230,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>40118</v>
       </c>
@@ -2252,7 +2250,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>40148</v>
       </c>
@@ -2280,7 +2278,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -2298,7 +2296,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40179</v>
       </c>
@@ -2318,7 +2316,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>40210</v>
       </c>
@@ -2338,7 +2336,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>40238</v>
       </c>
@@ -2358,7 +2356,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>40269</v>
       </c>
@@ -2378,7 +2376,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>40299</v>
       </c>
@@ -2398,7 +2396,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>40330</v>
       </c>
@@ -2418,7 +2416,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>40360</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -2466,7 +2464,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>40391</v>
       </c>
@@ -2488,7 +2486,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>40422</v>
       </c>
@@ -2512,7 +2510,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>40452</v>
       </c>
@@ -2538,7 +2536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>51</v>
@@ -2560,7 +2558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>242</v>
@@ -2580,7 +2578,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>40483</v>
       </c>
@@ -2604,7 +2602,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>40513</v>
       </c>
@@ -2630,7 +2628,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -2646,7 +2644,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>58</v>
       </c>
@@ -2664,7 +2662,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>40544</v>
       </c>
@@ -2684,7 +2682,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>40575</v>
       </c>
@@ -2704,7 +2702,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>40603</v>
       </c>
@@ -2724,7 +2722,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>40634</v>
       </c>
@@ -2746,7 +2744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>243</v>
@@ -2770,7 +2768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>40664</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>40695</v>
       </c>
@@ -2820,7 +2818,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -2842,7 +2840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>40725</v>
       </c>
@@ -2866,7 +2864,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>40756</v>
       </c>
@@ -2890,7 +2888,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>40787</v>
       </c>
@@ -2916,7 +2914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -2938,7 +2936,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>69</v>
@@ -2960,7 +2958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>68</v>
@@ -2982,7 +2980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>40817</v>
       </c>
@@ -3008,7 +3006,7 @@
         <v>40734</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>40848</v>
       </c>
@@ -3032,7 +3030,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>40848</v>
       </c>
@@ -3058,7 +3056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>40878</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -3106,7 +3104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>76</v>
@@ -3128,7 +3126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>78</v>
       </c>
@@ -3146,7 +3144,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>40909</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>59</v>
@@ -3192,7 +3190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -3214,7 +3212,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3230,7 +3228,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>40940</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>40969</v>
       </c>
@@ -3276,7 +3274,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41000</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -3322,7 +3320,7 @@
         <v>41217</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -3344,7 +3342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -3366,7 +3364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>84</v>
@@ -3388,7 +3386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>41030</v>
       </c>
@@ -3412,7 +3410,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>41061</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>51</v>
@@ -3458,7 +3456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>41091</v>
       </c>
@@ -3484,7 +3482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -3506,7 +3504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>41122</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>41153</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>41183</v>
       </c>
@@ -3580,7 +3578,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>40848</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>51</v>
@@ -3628,7 +3626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>95</v>
@@ -3650,7 +3648,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41244</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>51</v>
@@ -3698,7 +3696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -3720,7 +3718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>100</v>
       </c>
@@ -3738,7 +3736,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>41275</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -3784,7 +3782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>245</v>
@@ -3804,7 +3802,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -3828,7 +3826,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>84</v>
@@ -3850,7 +3848,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>51</v>
@@ -3872,7 +3870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>106</v>
@@ -3892,7 +3890,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41334</v>
       </c>
@@ -3920,7 +3918,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>239</v>
@@ -3944,7 +3942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>109</v>
@@ -3966,7 +3964,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>41365</v>
       </c>
@@ -3992,7 +3990,7 @@
         <v>41278</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>98</v>
@@ -4016,7 +4014,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>84</v>
@@ -4038,7 +4036,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41395</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>69</v>
@@ -4084,7 +4082,7 @@
       </c>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>41426</v>
       </c>
@@ -4108,7 +4106,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>41456</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>59</v>
@@ -4154,7 +4152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>114</v>
@@ -4176,7 +4174,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>41487</v>
       </c>
@@ -4204,7 +4202,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>182</v>
@@ -4226,7 +4224,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>118</v>
@@ -4248,7 +4246,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>41518</v>
       </c>
@@ -4274,7 +4272,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>41548</v>
       </c>
@@ -4298,7 +4296,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>41579</v>
       </c>
@@ -4326,7 +4324,7 @@
       </c>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>41609</v>
       </c>
@@ -4354,7 +4352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>123</v>
@@ -4378,7 +4376,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>124</v>
       </c>
@@ -4396,7 +4394,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>41640</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>247</v>
@@ -4440,7 +4438,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>41671</v>
       </c>
@@ -4466,7 +4464,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>41699</v>
       </c>
@@ -4492,7 +4490,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>41730</v>
       </c>
@@ -4518,7 +4516,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>41760</v>
       </c>
@@ -4544,7 +4542,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>41791</v>
       </c>
@@ -4572,7 +4570,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>41821</v>
       </c>
@@ -4592,7 +4590,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>41852</v>
       </c>
@@ -4612,7 +4610,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>41883</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>41913</v>
       </c>
@@ -4666,7 +4664,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>41944</v>
       </c>
@@ -4690,7 +4688,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>135</v>
@@ -4714,7 +4712,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>41974</v>
       </c>
@@ -4742,7 +4740,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>138</v>
@@ -4766,7 +4764,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>139</v>
       </c>
@@ -4784,7 +4782,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>42005</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>59</v>
@@ -4824,7 +4822,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>84</v>
@@ -4846,7 +4844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>142</v>
@@ -4870,7 +4868,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42036</v>
       </c>
@@ -4896,7 +4894,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>42065</v>
       </c>
@@ -4922,7 +4920,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42095</v>
       </c>
@@ -4948,7 +4946,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42125</v>
       </c>
@@ -4974,7 +4972,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>146</v>
@@ -4996,7 +4994,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42156</v>
       </c>
@@ -5022,7 +5020,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42186</v>
       </c>
@@ -5046,7 +5044,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42217</v>
       </c>
@@ -5072,7 +5070,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42248</v>
       </c>
@@ -5096,7 +5094,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>42278</v>
       </c>
@@ -5120,7 +5118,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>42309</v>
       </c>
@@ -5144,7 +5142,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>153</v>
@@ -5168,7 +5166,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42339</v>
       </c>
@@ -5194,7 +5192,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>155</v>
       </c>
@@ -5212,7 +5210,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>42370</v>
       </c>
@@ -5234,7 +5232,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>157</v>
@@ -5258,7 +5256,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42371</v>
       </c>
@@ -5282,7 +5280,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
         <v>160</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>42461</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>248</v>
@@ -5352,7 +5350,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>42491</v>
       </c>
@@ -5378,7 +5376,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>42522</v>
       </c>
@@ -5402,7 +5400,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>42552</v>
       </c>
@@ -5426,7 +5424,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>42583</v>
       </c>
@@ -5450,7 +5448,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>42614</v>
       </c>
@@ -5470,7 +5468,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>42644</v>
       </c>
@@ -5494,7 +5492,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>42675</v>
       </c>
@@ -5520,7 +5518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>42705</v>
       </c>
@@ -5544,7 +5542,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>164</v>
       </c>
@@ -5562,7 +5560,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>42736</v>
       </c>
@@ -5582,7 +5580,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EDATE(A160,1)</f>
         <v>42767</v>
@@ -5603,7 +5601,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" ref="A162:A168" si="0">EDATE(A161,1)</f>
         <v>42795</v>
@@ -5624,7 +5622,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -5651,7 +5649,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>59</v>
@@ -5671,7 +5669,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>84</v>
@@ -5693,7 +5691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>59</v>
@@ -5713,7 +5711,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>42856</v>
@@ -5734,7 +5732,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -5755,7 +5753,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>42917</v>
       </c>
@@ -5781,7 +5779,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>51</v>
@@ -5803,7 +5801,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>42948</v>
@@ -5830,7 +5828,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>51</v>
@@ -5852,7 +5850,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>84</v>
@@ -5874,7 +5872,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>51</v>
@@ -5899,7 +5897,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>42979</v>
@@ -5920,7 +5918,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="50"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A179" si="1">EDATE(A175,1)</f>
         <v>43009</v>
@@ -5947,7 +5945,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>84</v>
@@ -5969,7 +5967,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>43040</v>
@@ -5996,7 +5994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6023,7 +6021,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>239</v>
@@ -6045,7 +6043,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>166</v>
       </c>
@@ -6063,7 +6061,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43101</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>59</v>
@@ -6111,7 +6109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>51</v>
@@ -6135,7 +6133,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>51</v>
@@ -6159,7 +6157,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>43132</v>
       </c>
@@ -6179,7 +6177,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>43160</v>
       </c>
@@ -6203,7 +6201,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -6225,7 +6223,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -6247,7 +6245,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>43191</v>
       </c>
@@ -6271,7 +6269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>51</v>
@@ -6295,7 +6293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43221</v>
       </c>
@@ -6319,7 +6317,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>59</v>
@@ -6341,7 +6339,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43252</v>
       </c>
@@ -6361,7 +6359,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43282</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>69</v>
@@ -6407,7 +6405,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>177</v>
@@ -6429,7 +6427,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -6451,7 +6449,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>84</v>
@@ -6475,7 +6473,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>43313</v>
       </c>
@@ -6501,7 +6499,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>43344</v>
       </c>
@@ -6527,7 +6525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>43374</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>182</v>
@@ -6575,7 +6573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>43405</v>
       </c>
@@ -6599,7 +6597,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>59</v>
@@ -6619,7 +6617,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>43435</v>
       </c>
@@ -6639,7 +6637,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>185</v>
       </c>
@@ -6657,7 +6655,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>43466</v>
       </c>
@@ -6679,7 +6677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>84</v>
@@ -6703,7 +6701,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>43497</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>43525</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>51</v>
@@ -6777,7 +6775,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>43556</v>
       </c>
@@ -6803,7 +6801,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>51</v>
@@ -6825,7 +6823,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>84</v>
@@ -6847,7 +6845,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>43586</v>
       </c>
@@ -6871,7 +6869,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>193</v>
@@ -6893,7 +6891,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>43617</v>
       </c>
@@ -6917,7 +6915,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>43647</v>
       </c>
@@ -6941,7 +6939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>196</v>
@@ -6965,7 +6963,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>198</v>
@@ -6987,7 +6985,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>84</v>
@@ -7009,7 +7007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -7033,7 +7031,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>43678</v>
       </c>
@@ -7057,7 +7055,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -7079,7 +7077,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>87</v>
@@ -7101,7 +7099,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -7123,7 +7121,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>43709</v>
       </c>
@@ -7143,7 +7141,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>43739</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -7191,7 +7189,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>43770</v>
       </c>
@@ -7215,7 +7213,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>104</v>
@@ -7241,7 +7239,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>43800</v>
       </c>
@@ -7265,7 +7263,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>104</v>
@@ -7289,7 +7287,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>208</v>
       </c>
@@ -7307,7 +7305,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43831</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>59</v>
@@ -7355,7 +7353,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>211</v>
@@ -7377,7 +7375,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>102</v>
@@ -7397,7 +7395,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>214</v>
@@ -7419,7 +7417,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43862</v>
       </c>
@@ -7439,7 +7437,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>43891</v>
       </c>
@@ -7459,7 +7457,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>43922</v>
       </c>
@@ -7479,7 +7477,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>43952</v>
       </c>
@@ -7499,7 +7497,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>43983</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>44013</v>
       </c>
@@ -7547,7 +7545,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>218</v>
@@ -7571,7 +7569,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>44044</v>
       </c>
@@ -7595,7 +7593,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>44075</v>
       </c>
@@ -7619,7 +7617,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>221</v>
@@ -7641,7 +7639,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>44105</v>
       </c>
@@ -7663,7 +7661,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>44136</v>
       </c>
@@ -7687,7 +7685,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>215</v>
@@ -7707,7 +7705,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>44166</v>
       </c>
@@ -7733,7 +7731,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="48" t="s">
         <v>225</v>
       </c>
@@ -7751,7 +7749,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>44197</v>
       </c>
@@ -7775,7 +7773,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A256,1)</f>
         <v>44228</v>
@@ -7796,7 +7794,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A267" si="2">EDATE(A257,1)</f>
         <v>44256</v>
@@ -7817,7 +7815,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="2"/>
         <v>44287</v>
@@ -7838,7 +7836,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -7859,7 +7857,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -7880,7 +7878,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -7901,7 +7899,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -7922,7 +7920,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -7943,7 +7941,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>44470</v>
@@ -7964,7 +7962,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>44501</v>
@@ -7985,7 +7983,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="2"/>
         <v>44531</v>
@@ -8012,7 +8010,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23" t="s">
         <v>228</v>
       </c>
@@ -8030,7 +8028,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>44562</v>
       </c>
@@ -8054,7 +8052,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>44593</v>
       </c>
@@ -8074,7 +8072,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>44621</v>
       </c>
@@ -8098,7 +8096,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -8120,7 +8118,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>44654</v>
       </c>
@@ -8146,7 +8144,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>44682</v>
       </c>
@@ -8172,7 +8170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>221</v>
@@ -8194,7 +8192,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>215</v>
@@ -8214,7 +8212,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>234</v>
@@ -8238,7 +8236,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>44713</v>
       </c>
@@ -8260,7 +8258,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>215</v>
@@ -8284,7 +8282,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>44743</v>
       </c>
@@ -8310,7 +8308,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>44774</v>
@@ -8331,7 +8329,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A284" si="3">EDATE(A281,1)</f>
         <v>44805</v>
@@ -8352,7 +8350,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="3"/>
         <v>44835</v>
@@ -8379,7 +8377,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>44866</v>
@@ -8406,7 +8404,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>51</v>
@@ -8428,7 +8426,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>44896</v>
@@ -8455,7 +8453,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>239</v>
@@ -8477,7 +8475,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>267</v>
       </c>
@@ -8495,7 +8493,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>44927</v>
       </c>
@@ -8519,7 +8517,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>51</v>
@@ -8541,7 +8539,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44958</v>
       </c>
@@ -8561,7 +8559,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44986</v>
       </c>
@@ -8587,7 +8585,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>51</v>
@@ -8609,11 +8607,11 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B294" s="20"/>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="40"/>
+      <c r="B294" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
       <c r="E294" s="9"/>
@@ -8622,14 +8620,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H294" s="39"/>
+      <c r="H294" s="39">
+        <v>1</v>
+      </c>
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
-      <c r="K294" s="20"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K294" s="50">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -8645,9 +8647,9 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -8663,9 +8665,9 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -8681,9 +8683,9 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -8699,9 +8701,9 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -8717,9 +8719,9 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -8735,9 +8737,9 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -8753,9 +8755,9 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -8771,9 +8773,9 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -8789,9 +8791,9 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -8807,9 +8809,9 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -8825,9 +8827,9 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -8843,9 +8845,9 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -8861,9 +8863,9 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -8879,9 +8881,9 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -8897,9 +8899,9 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -8915,9 +8917,9 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -8933,9 +8935,9 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -8951,9 +8953,9 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -8969,9 +8971,9 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -8987,9 +8989,9 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9005,9 +9007,9 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9023,9 +9025,9 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9041,9 +9043,9 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -9059,9 +9061,9 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9077,9 +9079,9 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -9095,9 +9097,9 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9113,9 +9115,9 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -9131,9 +9133,9 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9149,9 +9151,9 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -9167,9 +9169,9 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9185,9 +9187,9 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -9203,9 +9205,9 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -9221,9 +9223,9 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -9239,9 +9241,9 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -9257,9 +9259,9 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -9275,9 +9277,9 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -9293,9 +9295,9 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -9311,9 +9313,9 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -9329,9 +9331,9 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -9347,9 +9349,9 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -9365,9 +9367,9 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -9383,9 +9385,9 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -9401,9 +9403,9 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -9419,9 +9421,9 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -9437,9 +9439,9 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -9455,9 +9457,9 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -9473,9 +9475,9 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -9491,9 +9493,9 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -9509,9 +9511,9 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -9527,9 +9529,9 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -9545,9 +9547,9 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -9563,9 +9565,9 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -9581,9 +9583,9 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -9599,9 +9601,9 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -9617,9 +9619,9 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -9635,9 +9637,9 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -9653,9 +9655,9 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -9671,9 +9673,9 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -9689,9 +9691,9 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -9707,9 +9709,9 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -9725,9 +9727,9 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -9743,9 +9745,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -9761,9 +9763,9 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -9779,9 +9781,9 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -9797,9 +9799,9 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -9815,9 +9817,9 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -9833,9 +9835,9 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -9851,9 +9853,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -9869,8 +9871,10 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="40"/>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="40">
+        <v>47119</v>
+      </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -9885,7 +9889,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -9901,7 +9905,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -9917,7 +9921,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -9933,7 +9937,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9949,7 +9953,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9965,7 +9969,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9981,7 +9985,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -9997,7 +10001,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10013,7 +10017,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10029,7 +10033,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10045,7 +10049,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10061,7 +10065,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10077,7 +10081,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10093,7 +10097,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10109,7 +10113,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10125,7 +10129,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10141,7 +10145,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10157,7 +10161,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10173,7 +10177,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10189,7 +10193,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10205,7 +10209,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10221,7 +10225,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10237,7 +10241,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10253,7 +10257,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10269,7 +10273,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10285,7 +10289,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10301,7 +10305,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10317,7 +10321,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10333,7 +10337,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10349,7 +10353,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10365,7 +10369,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10381,7 +10385,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10397,7 +10401,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10413,7 +10417,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10429,7 +10433,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10445,7 +10449,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10461,7 +10465,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10477,7 +10481,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10493,7 +10497,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10509,7 +10513,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10525,7 +10529,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10541,7 +10545,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10557,7 +10561,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10573,7 +10577,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10589,7 +10593,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10605,7 +10609,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10621,7 +10625,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10637,7 +10641,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10653,7 +10657,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10669,7 +10673,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10685,7 +10689,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10701,7 +10705,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10717,7 +10721,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10733,7 +10737,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10749,7 +10753,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10765,7 +10769,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10781,7 +10785,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10797,7 +10801,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10813,7 +10817,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10829,7 +10833,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10845,7 +10849,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10861,7 +10865,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10877,7 +10881,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10893,7 +10897,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10909,7 +10913,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10925,7 +10929,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10941,7 +10945,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10957,7 +10961,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10973,7 +10977,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10989,7 +10993,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11005,7 +11009,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11021,7 +11025,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11037,21 +11041,37 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A437" s="41"/>
-      <c r="B437" s="15"/>
-      <c r="C437" s="42"/>
-      <c r="D437" s="43"/>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="40"/>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="39"/>
       <c r="E437" s="9"/>
-      <c r="F437" s="15"/>
+      <c r="F437" s="20"/>
       <c r="G437" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H437" s="43"/>
+      <c r="H437" s="39"/>
       <c r="I437" s="9"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="15"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" s="41"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="42"/>
+      <c r="D438" s="43"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="15"/>
+      <c r="G438" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="43"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="12"/>
+      <c r="K438" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11068,10 +11088,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11094,28 +11114,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11128,7 +11148,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11157,7 +11177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -11183,17 +11203,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11214,7 +11234,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11241,7 +11261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11267,7 +11287,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11293,7 +11313,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11319,7 +11339,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11345,7 +11365,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11371,7 +11391,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11397,7 +11417,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11423,7 +11443,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11443,7 +11463,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11463,7 +11483,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11483,7 +11503,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11504,7 +11524,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11525,7 +11545,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11546,7 +11566,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11567,7 +11587,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11588,7 +11608,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11609,7 +11629,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11630,7 +11650,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11651,7 +11671,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11672,7 +11692,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11693,7 +11713,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11714,7 +11734,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11735,7 +11755,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11756,7 +11776,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11777,7 +11797,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11798,7 +11818,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11819,7 +11839,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11840,7 +11860,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11861,7 +11881,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11882,7 +11902,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11903,7 +11923,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11912,7 +11932,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11921,7 +11941,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11930,7 +11950,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11939,7 +11959,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11948,7 +11968,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11957,7 +11977,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11966,7 +11986,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11975,7 +11995,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11984,7 +12004,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11993,7 +12013,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12002,7 +12022,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12011,7 +12031,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12020,7 +12040,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12029,7 +12049,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12038,7 +12058,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12047,7 +12067,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12056,7 +12076,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12065,7 +12085,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12074,7 +12094,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12083,7 +12103,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12092,7 +12112,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12101,7 +12121,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12110,7 +12130,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12119,7 +12139,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12128,7 +12148,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12137,7 +12157,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12146,7 +12166,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12155,7 +12175,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12164,7 +12184,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E019F4-56A3-42F2-9D2F-1E86C2ACCB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="269">
   <si>
     <t>PERIOD</t>
   </si>
@@ -905,7 +906,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1594,25 +1595,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1919,34 +1920,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A283" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A283" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="B295" sqref="B295"/>
+      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1969,7 +1970,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1989,7 +1990,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2012,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2019,7 +2020,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2032,7 +2033,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2049,7 +2050,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2103,12 +2104,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>20.289999999999992</v>
+        <v>19.289999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>39965</v>
       </c>
@@ -2150,7 +2151,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>39995</v>
       </c>
@@ -2170,7 +2171,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40026</v>
       </c>
@@ -2190,7 +2191,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40057</v>
       </c>
@@ -2210,7 +2211,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40087</v>
       </c>
@@ -2230,7 +2231,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40118</v>
       </c>
@@ -2250,7 +2251,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40148</v>
       </c>
@@ -2278,7 +2279,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -2296,7 +2297,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40179</v>
       </c>
@@ -2316,7 +2317,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>40210</v>
       </c>
@@ -2336,7 +2337,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40238</v>
       </c>
@@ -2356,7 +2357,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>40269</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>40299</v>
       </c>
@@ -2396,7 +2397,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>40330</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>40360</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -2464,7 +2465,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>40391</v>
       </c>
@@ -2486,7 +2487,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>40422</v>
       </c>
@@ -2510,7 +2511,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>40452</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>51</v>
@@ -2558,7 +2559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>242</v>
@@ -2578,7 +2579,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>40483</v>
       </c>
@@ -2602,7 +2603,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>40513</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -2644,7 +2645,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>58</v>
       </c>
@@ -2662,7 +2663,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>40544</v>
       </c>
@@ -2682,7 +2683,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>40575</v>
       </c>
@@ -2702,7 +2703,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>40603</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>40634</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>243</v>
@@ -2768,7 +2769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>40664</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>40695</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -2840,7 +2841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>40725</v>
       </c>
@@ -2864,7 +2865,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40756</v>
       </c>
@@ -2888,7 +2889,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>40787</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -2936,7 +2937,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>69</v>
@@ -2958,7 +2959,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>68</v>
@@ -2980,7 +2981,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>40817</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>40734</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40848</v>
       </c>
@@ -3030,7 +3031,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40848</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>40878</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -3104,7 +3105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>76</v>
@@ -3126,7 +3127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>78</v>
       </c>
@@ -3144,7 +3145,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>40909</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>59</v>
@@ -3190,7 +3191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -3212,7 +3213,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3228,7 +3229,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40940</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>40969</v>
       </c>
@@ -3274,7 +3275,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41000</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -3320,7 +3321,7 @@
         <v>41217</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -3342,7 +3343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -3364,7 +3365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>84</v>
@@ -3386,7 +3387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>41030</v>
       </c>
@@ -3410,7 +3411,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>41061</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>51</v>
@@ -3456,7 +3457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>41091</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -3504,7 +3505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41122</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41153</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>41183</v>
       </c>
@@ -3578,7 +3579,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>40848</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>51</v>
@@ -3626,7 +3627,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>95</v>
@@ -3648,7 +3649,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41244</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>51</v>
@@ -3696,7 +3697,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -3718,7 +3719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>100</v>
       </c>
@@ -3736,7 +3737,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>41275</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -3782,7 +3783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>245</v>
@@ -3802,7 +3803,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -3826,7 +3827,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>84</v>
@@ -3848,7 +3849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>51</v>
@@ -3870,7 +3871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>106</v>
@@ -3890,7 +3891,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41334</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>239</v>
@@ -3942,7 +3943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>109</v>
@@ -3964,7 +3965,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41365</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>41278</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>98</v>
@@ -4014,7 +4015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>84</v>
@@ -4036,7 +4037,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41395</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>69</v>
@@ -4082,7 +4083,7 @@
       </c>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>41426</v>
       </c>
@@ -4106,7 +4107,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>41456</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>59</v>
@@ -4152,7 +4153,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>114</v>
@@ -4174,7 +4175,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>41487</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>182</v>
@@ -4224,7 +4225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>118</v>
@@ -4246,7 +4247,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41518</v>
       </c>
@@ -4272,7 +4273,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41548</v>
       </c>
@@ -4296,7 +4297,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>41579</v>
       </c>
@@ -4324,7 +4325,7 @@
       </c>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>41609</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>123</v>
@@ -4376,7 +4377,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>124</v>
       </c>
@@ -4394,7 +4395,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>41640</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>247</v>
@@ -4438,7 +4439,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41671</v>
       </c>
@@ -4464,7 +4465,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>41699</v>
       </c>
@@ -4490,7 +4491,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>41730</v>
       </c>
@@ -4516,7 +4517,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>41760</v>
       </c>
@@ -4542,7 +4543,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>41791</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>41821</v>
       </c>
@@ -4590,7 +4591,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>41852</v>
       </c>
@@ -4610,7 +4611,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>41883</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
         <v>41913</v>
       </c>
@@ -4664,7 +4665,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>41944</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>135</v>
@@ -4712,7 +4713,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>41974</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>138</v>
@@ -4764,7 +4765,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="48" t="s">
         <v>139</v>
       </c>
@@ -4782,7 +4783,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>42005</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>59</v>
@@ -4822,7 +4823,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>84</v>
@@ -4844,7 +4845,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>142</v>
@@ -4868,7 +4869,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42036</v>
       </c>
@@ -4894,7 +4895,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42065</v>
       </c>
@@ -4920,7 +4921,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42095</v>
       </c>
@@ -4946,7 +4947,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42125</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>146</v>
@@ -4994,7 +4995,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42156</v>
       </c>
@@ -5020,7 +5021,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42186</v>
       </c>
@@ -5044,7 +5045,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42217</v>
       </c>
@@ -5070,7 +5071,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42248</v>
       </c>
@@ -5094,7 +5095,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42278</v>
       </c>
@@ -5118,7 +5119,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>42309</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>153</v>
@@ -5166,7 +5167,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42339</v>
       </c>
@@ -5192,7 +5193,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>155</v>
       </c>
@@ -5210,7 +5211,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>42370</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>157</v>
@@ -5256,7 +5257,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42371</v>
       </c>
@@ -5280,7 +5281,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40" t="s">
         <v>160</v>
       </c>
@@ -5304,7 +5305,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>42461</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>248</v>
@@ -5350,7 +5351,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>42491</v>
       </c>
@@ -5376,7 +5377,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>42522</v>
       </c>
@@ -5400,7 +5401,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>42552</v>
       </c>
@@ -5424,7 +5425,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>42583</v>
       </c>
@@ -5448,7 +5449,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>42614</v>
       </c>
@@ -5468,7 +5469,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>42644</v>
       </c>
@@ -5492,7 +5493,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>42675</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>42705</v>
       </c>
@@ -5542,7 +5543,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23" t="s">
         <v>164</v>
       </c>
@@ -5560,7 +5561,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>42736</v>
       </c>
@@ -5580,7 +5581,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A160,1)</f>
         <v>42767</v>
@@ -5601,7 +5602,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f t="shared" ref="A162:A168" si="0">EDATE(A161,1)</f>
         <v>42795</v>
@@ -5622,7 +5623,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -5649,7 +5650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>59</v>
@@ -5669,7 +5670,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>84</v>
@@ -5691,7 +5692,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>59</v>
@@ -5711,7 +5712,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>42856</v>
@@ -5732,7 +5733,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -5753,7 +5754,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>42917</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>51</v>
@@ -5801,7 +5802,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>42948</v>
@@ -5828,7 +5829,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>51</v>
@@ -5850,7 +5851,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>84</v>
@@ -5872,7 +5873,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>51</v>
@@ -5897,7 +5898,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>42979</v>
@@ -5918,7 +5919,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="50"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A179" si="1">EDATE(A175,1)</f>
         <v>43009</v>
@@ -5945,7 +5946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>84</v>
@@ -5967,7 +5968,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>43040</v>
@@ -5994,7 +5995,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6021,7 +6022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>239</v>
@@ -6043,7 +6044,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23" t="s">
         <v>166</v>
       </c>
@@ -6061,7 +6062,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>43101</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>59</v>
@@ -6109,7 +6110,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>51</v>
@@ -6133,7 +6134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>51</v>
@@ -6157,7 +6158,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>43132</v>
       </c>
@@ -6177,7 +6178,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>43160</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -6223,7 +6224,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -6245,7 +6246,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>43191</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>51</v>
@@ -6293,7 +6294,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>43221</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>59</v>
@@ -6339,7 +6340,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43252</v>
       </c>
@@ -6359,7 +6360,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>43282</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>69</v>
@@ -6405,7 +6406,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>177</v>
@@ -6427,7 +6428,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -6449,7 +6450,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>84</v>
@@ -6473,7 +6474,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>43313</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>43344</v>
       </c>
@@ -6525,7 +6526,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>43374</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>182</v>
@@ -6573,7 +6574,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>43405</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>59</v>
@@ -6617,7 +6618,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>43435</v>
       </c>
@@ -6637,7 +6638,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
         <v>185</v>
       </c>
@@ -6655,7 +6656,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>43466</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>84</v>
@@ -6701,7 +6702,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>43497</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>43525</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>51</v>
@@ -6775,7 +6776,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>43556</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>51</v>
@@ -6823,7 +6824,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>84</v>
@@ -6845,7 +6846,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>43586</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>193</v>
@@ -6891,7 +6892,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>43617</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>43647</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>196</v>
@@ -6963,7 +6964,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>198</v>
@@ -6985,7 +6986,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>84</v>
@@ -7007,7 +7008,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -7031,7 +7032,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>43678</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -7077,7 +7078,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>87</v>
@@ -7099,7 +7100,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -7121,7 +7122,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>43709</v>
       </c>
@@ -7141,7 +7142,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>43739</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -7189,7 +7190,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>43770</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>104</v>
@@ -7239,7 +7240,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>43800</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>104</v>
@@ -7287,7 +7288,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23" t="s">
         <v>208</v>
       </c>
@@ -7305,7 +7306,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>43831</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>59</v>
@@ -7353,7 +7354,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>211</v>
@@ -7375,7 +7376,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>102</v>
@@ -7395,7 +7396,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>214</v>
@@ -7417,7 +7418,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>43862</v>
       </c>
@@ -7437,7 +7438,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>43891</v>
       </c>
@@ -7457,7 +7458,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>43922</v>
       </c>
@@ -7477,7 +7478,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>43952</v>
       </c>
@@ -7497,7 +7498,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>43983</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>44013</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>218</v>
@@ -7569,7 +7570,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>44044</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>44075</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>221</v>
@@ -7639,7 +7640,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>44105</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>44136</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>215</v>
@@ -7705,7 +7706,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>44166</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="48" t="s">
         <v>225</v>
       </c>
@@ -7749,7 +7750,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>44197</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A256,1)</f>
         <v>44228</v>
@@ -7794,7 +7795,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A267" si="2">EDATE(A257,1)</f>
         <v>44256</v>
@@ -7815,7 +7816,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="2"/>
         <v>44287</v>
@@ -7836,7 +7837,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -7857,7 +7858,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -7878,7 +7879,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -7899,7 +7900,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -7920,7 +7921,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -7941,7 +7942,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>44470</v>
@@ -7962,7 +7963,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>44501</v>
@@ -7983,7 +7984,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="2"/>
         <v>44531</v>
@@ -8010,7 +8011,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23" t="s">
         <v>228</v>
       </c>
@@ -8028,7 +8029,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>44562</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>44593</v>
       </c>
@@ -8072,7 +8073,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>44621</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>221</v>
@@ -8118,7 +8119,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>44654</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>44682</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>221</v>
@@ -8192,7 +8193,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>215</v>
@@ -8212,7 +8213,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>234</v>
@@ -8236,7 +8237,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>44713</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>215</v>
@@ -8282,7 +8283,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>44743</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>44774</v>
@@ -8329,7 +8330,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A284" si="3">EDATE(A281,1)</f>
         <v>44805</v>
@@ -8350,7 +8351,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="3"/>
         <v>44835</v>
@@ -8377,7 +8378,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>44866</v>
@@ -8404,7 +8405,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>51</v>
@@ -8426,7 +8427,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>44896</v>
@@ -8453,7 +8454,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>239</v>
@@ -8475,7 +8476,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>267</v>
       </c>
@@ -8493,7 +8494,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>44927</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>51</v>
@@ -8539,7 +8540,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>44958</v>
       </c>
@@ -8559,7 +8560,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>44986</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>51</v>
@@ -8607,7 +8608,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>51</v>
@@ -8629,11 +8630,13 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>45017</v>
       </c>
-      <c r="B295" s="20"/>
+      <c r="B295" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
@@ -8642,12 +8645,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H295" s="39"/>
+      <c r="H295" s="39">
+        <v>1</v>
+      </c>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
-      <c r="K295" s="20"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K295" s="50">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>45047</v>
       </c>
@@ -8665,7 +8672,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>45078</v>
       </c>
@@ -8683,7 +8690,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>45108</v>
       </c>
@@ -8701,7 +8708,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>45139</v>
       </c>
@@ -8719,7 +8726,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>45170</v>
       </c>
@@ -8737,7 +8744,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>45200</v>
       </c>
@@ -8755,7 +8762,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>45231</v>
       </c>
@@ -8773,7 +8780,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>45261</v>
       </c>
@@ -8791,7 +8798,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>45292</v>
       </c>
@@ -8809,7 +8816,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>45323</v>
       </c>
@@ -8827,7 +8834,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>45352</v>
       </c>
@@ -8845,7 +8852,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>45383</v>
       </c>
@@ -8863,7 +8870,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>45413</v>
       </c>
@@ -8881,7 +8888,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>45444</v>
       </c>
@@ -8899,7 +8906,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>45474</v>
       </c>
@@ -8917,7 +8924,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>45505</v>
       </c>
@@ -8935,7 +8942,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>45536</v>
       </c>
@@ -8953,7 +8960,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>45566</v>
       </c>
@@ -8971,7 +8978,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>45597</v>
       </c>
@@ -8989,7 +8996,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>45627</v>
       </c>
@@ -9007,7 +9014,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>45658</v>
       </c>
@@ -9025,7 +9032,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>45689</v>
       </c>
@@ -9043,7 +9050,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>45717</v>
       </c>
@@ -9061,7 +9068,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>45748</v>
       </c>
@@ -9079,7 +9086,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>45778</v>
       </c>
@@ -9097,7 +9104,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>45809</v>
       </c>
@@ -9115,7 +9122,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>45839</v>
       </c>
@@ -9133,7 +9140,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>45870</v>
       </c>
@@ -9151,7 +9158,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>45901</v>
       </c>
@@ -9169,7 +9176,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>45931</v>
       </c>
@@ -9187,7 +9194,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>45962</v>
       </c>
@@ -9205,7 +9212,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>45992</v>
       </c>
@@ -9223,7 +9230,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>46023</v>
       </c>
@@ -9241,7 +9248,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>46054</v>
       </c>
@@ -9259,7 +9266,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>46082</v>
       </c>
@@ -9277,7 +9284,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>46113</v>
       </c>
@@ -9295,7 +9302,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>46143</v>
       </c>
@@ -9313,7 +9320,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>46174</v>
       </c>
@@ -9331,7 +9338,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>46204</v>
       </c>
@@ -9349,7 +9356,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>46235</v>
       </c>
@@ -9367,7 +9374,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>46266</v>
       </c>
@@ -9385,7 +9392,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>46296</v>
       </c>
@@ -9403,7 +9410,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>46327</v>
       </c>
@@ -9421,7 +9428,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>46357</v>
       </c>
@@ -9439,7 +9446,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>46388</v>
       </c>
@@ -9457,7 +9464,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>46419</v>
       </c>
@@ -9475,7 +9482,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>46447</v>
       </c>
@@ -9493,7 +9500,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>46478</v>
       </c>
@@ -9511,7 +9518,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>46508</v>
       </c>
@@ -9529,7 +9536,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>46539</v>
       </c>
@@ -9547,7 +9554,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>46569</v>
       </c>
@@ -9565,7 +9572,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>46600</v>
       </c>
@@ -9583,7 +9590,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>46631</v>
       </c>
@@ -9601,7 +9608,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>46661</v>
       </c>
@@ -9619,7 +9626,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>46692</v>
       </c>
@@ -9637,7 +9644,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>46722</v>
       </c>
@@ -9655,7 +9662,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>46753</v>
       </c>
@@ -9673,7 +9680,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>46784</v>
       </c>
@@ -9691,7 +9698,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>46813</v>
       </c>
@@ -9709,7 +9716,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>46844</v>
       </c>
@@ -9727,7 +9734,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>46874</v>
       </c>
@@ -9745,7 +9752,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>46905</v>
       </c>
@@ -9763,7 +9770,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>46935</v>
       </c>
@@ -9781,7 +9788,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>46966</v>
       </c>
@@ -9799,7 +9806,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>46997</v>
       </c>
@@ -9817,7 +9824,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>47027</v>
       </c>
@@ -9835,7 +9842,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>47058</v>
       </c>
@@ -9853,7 +9860,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>47088</v>
       </c>
@@ -9871,7 +9878,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>47119</v>
       </c>
@@ -9889,7 +9896,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -9905,7 +9912,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -9921,7 +9928,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -9937,7 +9944,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9953,7 +9960,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9969,7 +9976,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9985,7 +9992,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10001,7 +10008,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10017,7 +10024,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10033,7 +10040,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10049,7 +10056,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10065,7 +10072,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10081,7 +10088,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10097,7 +10104,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10113,7 +10120,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10129,7 +10136,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10145,7 +10152,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10161,7 +10168,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10177,7 +10184,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10193,7 +10200,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10209,7 +10216,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10225,7 +10232,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10241,7 +10248,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10257,7 +10264,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10273,7 +10280,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10289,7 +10296,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10305,7 +10312,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10321,7 +10328,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10337,7 +10344,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10353,7 +10360,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10369,7 +10376,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10385,7 +10392,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10401,7 +10408,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10417,7 +10424,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10433,7 +10440,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10449,7 +10456,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10465,7 +10472,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10481,7 +10488,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10497,7 +10504,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10513,7 +10520,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10529,7 +10536,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10545,7 +10552,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10561,7 +10568,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10577,7 +10584,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10593,7 +10600,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10609,7 +10616,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10625,7 +10632,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10641,7 +10648,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10657,7 +10664,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10673,7 +10680,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10689,7 +10696,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10705,7 +10712,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10721,7 +10728,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10737,7 +10744,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10753,7 +10760,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10769,7 +10776,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10785,7 +10792,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10801,7 +10808,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10817,7 +10824,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10833,7 +10840,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10849,7 +10856,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10865,7 +10872,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10881,7 +10888,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10897,7 +10904,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10913,7 +10920,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10929,7 +10936,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10945,7 +10952,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10961,7 +10968,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10977,7 +10984,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10993,7 +11000,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11009,7 +11016,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11025,7 +11032,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11041,7 +11048,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11057,7 +11064,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="41"/>
       <c r="B438" s="15"/>
       <c r="C438" s="42"/>
@@ -11088,10 +11095,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11114,28 +11121,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11148,7 +11155,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11177,7 +11184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -11203,17 +11210,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11234,7 +11241,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11261,7 +11268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11287,7 +11294,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11313,7 +11320,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11339,7 +11346,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11365,7 +11372,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11391,7 +11398,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11417,7 +11424,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11443,7 +11450,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11463,7 +11470,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11483,7 +11490,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11503,7 +11510,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11524,7 +11531,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11545,7 +11552,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11566,7 +11573,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11587,7 +11594,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11608,7 +11615,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11629,7 +11636,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11650,7 +11657,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11671,7 +11678,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11692,7 +11699,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11713,7 +11720,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11734,7 +11741,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11755,7 +11762,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11776,7 +11783,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11797,7 +11804,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11818,7 +11825,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11839,7 +11846,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11860,7 +11867,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11881,7 +11888,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11902,7 +11909,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11923,7 +11930,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11932,7 +11939,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11941,7 +11948,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11950,7 +11957,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11959,7 +11966,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11968,7 +11975,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11977,7 +11984,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11986,7 +11993,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11995,7 +12002,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12004,7 +12011,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12013,7 +12020,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12022,7 +12029,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12031,7 +12038,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12040,7 +12047,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12049,7 +12056,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12058,7 +12065,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12067,7 +12074,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12076,7 +12083,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12085,7 +12092,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12094,7 +12101,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12103,7 +12110,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12112,7 +12119,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12121,7 +12128,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12130,7 +12137,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12139,7 +12146,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12148,7 +12155,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12157,7 +12164,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12166,7 +12173,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12175,7 +12182,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12184,7 +12191,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E019F4-56A3-42F2-9D2F-1E86C2ACCB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AACC787-EBC6-457C-8AF0-E0F95335FB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="268">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>6/15/2012</t>
-  </si>
-  <si>
-    <t>SL91-0-0)</t>
   </si>
   <si>
     <t>6/18/2012</t>
@@ -536,9 +533,6 @@
     <t>UT(1-2-22)</t>
   </si>
   <si>
-    <t>02/0/2016</t>
-  </si>
-  <si>
     <t>4/6,7,,8/2016</t>
   </si>
   <si>
@@ -901,6 +895,9 @@
   </si>
   <si>
     <t>3/21,23,24/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1927,9 +1924,9 @@
   <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A283" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2094,7 +2091,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.168000000000063</v>
+        <v>16.668000000000063</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2104,7 +2101,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19.289999999999992</v>
+        <v>16.789999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2562,7 +2559,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -2608,7 +2605,7 @@
         <v>40513</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -2748,7 +2745,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -2798,7 +2795,7 @@
         <v>40695</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -2822,15 +2819,13 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39">
         <v>2</v>
@@ -3454,7 +3449,7 @@
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3480,7 +3475,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,7 +3497,7 @@
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3510,7 +3505,7 @@
         <v>41122</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -3530,7 +3525,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -3556,7 +3551,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3602,7 +3597,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3624,13 +3619,13 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39">
@@ -3646,7 +3641,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -3694,7 +3689,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3716,12 +3711,12 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3780,13 +3775,13 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39">
@@ -3846,7 +3841,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3868,13 +3863,13 @@
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39">
@@ -3896,7 +3891,7 @@
         <v>41334</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -3916,13 +3911,13 @@
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
@@ -3940,13 +3935,13 @@
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39">
@@ -3994,7 +3989,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39">
@@ -4012,7 +4007,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4034,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4058,7 +4053,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4088,7 +4083,7 @@
         <v>41426</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -4112,17 +4107,19 @@
         <v>41456</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39">
         <v>0.5</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39">
         <v>2.5</v>
@@ -4130,7 +4127,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4150,25 +4147,23 @@
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="39">
         <v>1.6919999999999999</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -4180,17 +4175,19 @@
         <v>41487</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39">
         <v>0.5</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39">
         <v>1.25</v>
@@ -4200,13 +4197,13 @@
         <v>0.25</v>
       </c>
       <c r="K102" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4222,25 +4219,23 @@
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="13">
-        <v>1.25</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C104" s="13"/>
       <c r="D104" s="39">
         <v>1.2250000000000001</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -4252,7 +4247,7 @@
         <v>41518</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -4278,7 +4273,7 @@
         <v>41548</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -4302,7 +4297,7 @@
         <v>41579</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -4350,13 +4345,13 @@
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -4379,7 +4374,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4402,37 +4397,37 @@
       <c r="B111" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="13">
-        <v>1.25</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C112" s="13"/>
       <c r="D112" s="39">
         <v>0.24</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -4444,7 +4439,7 @@
         <v>41671</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -4470,7 +4465,7 @@
         <v>41699</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -4496,7 +4491,7 @@
         <v>41730</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" s="13">
         <v>1.25</v>
@@ -4522,7 +4517,7 @@
         <v>41760</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -4568,7 +4563,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
       <c r="K117" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -4616,7 +4611,7 @@
         <v>41883</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -4636,7 +4631,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -4644,7 +4639,7 @@
         <v>41913</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="42">
         <v>1.25</v>
@@ -4672,13 +4667,15 @@
       <c r="B122" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39">
         <v>2</v>
@@ -4686,17 +4683,15 @@
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
       <c r="K122" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C123" s="13">
-        <v>1.25</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C123" s="13"/>
       <c r="D123" s="39">
         <v>2.4870000000000001</v>
       </c>
@@ -4704,9 +4699,9 @@
       <c r="F123" s="20">
         <v>1.2370000000000001</v>
       </c>
-      <c r="G123" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
@@ -4718,7 +4713,7 @@
         <v>41974</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -4727,9 +4722,7 @@
         <v>2</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="20">
-        <v>2</v>
-      </c>
+      <c r="F124" s="20"/>
       <c r="G124" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -4738,17 +4731,15 @@
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C125" s="13">
-        <v>1.25</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C125" s="13"/>
       <c r="D125" s="39">
         <v>3.7290000000000001</v>
       </c>
@@ -4756,9 +4747,9 @@
       <c r="F125" s="20">
         <v>2.4790000000000001</v>
       </c>
-      <c r="G125" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
@@ -4767,7 +4758,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4790,19 +4781,21 @@
       <c r="B127" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="13"/>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
       <c r="K127" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -4842,17 +4835,15 @@
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C130" s="13">
-        <v>1.25</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C130" s="13"/>
       <c r="D130" s="39">
         <v>1.617</v>
       </c>
@@ -4860,9 +4851,9 @@
       <c r="F130" s="20">
         <v>0.36699999999999999</v>
       </c>
-      <c r="G130" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H130" s="39"/>
       <c r="I130" s="9"/>
@@ -4874,7 +4865,7 @@
         <v>42036</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
@@ -4900,7 +4891,7 @@
         <v>42065</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132" s="13">
         <v>1.25</v>
@@ -4926,7 +4917,7 @@
         <v>42095</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -4976,7 +4967,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39">
@@ -5000,7 +4991,7 @@
         <v>42156</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" s="13">
         <v>1.25</v>
@@ -5026,7 +5017,7 @@
         <v>42186</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -5050,7 +5041,7 @@
         <v>42217</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -5076,7 +5067,7 @@
         <v>42248</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" s="13">
         <v>1.25</v>
@@ -5100,7 +5091,7 @@
         <v>42278</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -5126,13 +5117,15 @@
       <c r="B141" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="13"/>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39"/>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H141" s="39">
         <v>5</v>
@@ -5140,17 +5133,15 @@
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="13">
-        <v>1.25</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C142" s="13"/>
       <c r="D142" s="39">
         <v>1.6419999999999999</v>
       </c>
@@ -5158,9 +5149,9 @@
       <c r="F142" s="20">
         <v>0.34</v>
       </c>
-      <c r="G142" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
@@ -5172,7 +5163,7 @@
         <v>42339</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="13">
         <v>1.25</v>
@@ -5195,7 +5186,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5218,29 +5209,29 @@
       <c r="B145" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C145" s="13"/>
+      <c r="C145" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D145" s="39"/>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G145" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="13">
-        <v>1.25</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C146" s="13"/>
       <c r="D146" s="39">
         <v>3.375</v>
       </c>
@@ -5248,9 +5239,9 @@
       <c r="F146" s="20">
         <v>2.125</v>
       </c>
-      <c r="G146" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
@@ -5262,7 +5253,7 @@
         <v>42371</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147" s="13">
         <v>1.25</v>
@@ -5282,11 +5273,11 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="40" t="s">
-        <v>160</v>
+      <c r="A148" s="40">
+        <v>42430</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
@@ -5312,13 +5303,15 @@
       <c r="B149" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C149" s="13"/>
+      <c r="C149" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D149" s="39"/>
       <c r="E149" s="9"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G149" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H149" s="39">
         <v>3</v>
@@ -5326,25 +5319,23 @@
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C150" s="13">
-        <v>1.25</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C150" s="13"/>
       <c r="D150" s="39">
         <v>1.2210000000000001</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
@@ -5356,7 +5347,7 @@
         <v>42491</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -5382,7 +5373,7 @@
         <v>42522</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
@@ -5406,7 +5397,7 @@
         <v>42552</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -5430,7 +5421,7 @@
         <v>42583</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -5474,7 +5465,7 @@
         <v>42644</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -5498,7 +5489,7 @@
         <v>42675</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C157" s="13">
         <v>1.25</v>
@@ -5516,7 +5507,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -5524,7 +5515,7 @@
         <v>42705</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -5545,7 +5536,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5647,7 +5638,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -5689,7 +5680,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -5759,7 +5750,7 @@
         <v>42917</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -5870,7 +5861,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
       <c r="K173" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -5882,7 +5873,7 @@
       <c r="D174" s="39"/>
       <c r="E174" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.168000000000063</v>
+        <v>16.668000000000063</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="13" t="str">
@@ -5943,7 +5934,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -5965,7 +5956,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -5992,7 +5983,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -6019,13 +6010,13 @@
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="39">
@@ -6041,12 +6032,12 @@
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
       <c r="K180" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6107,7 +6098,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -6131,7 +6122,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -6155,7 +6146,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
       <c r="K185" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -6185,13 +6176,15 @@
       <c r="B187" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C187" s="13"/>
+      <c r="C187" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D187" s="39"/>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G187" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H187" s="39">
         <v>1</v>
@@ -6229,21 +6222,19 @@
       <c r="B189" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C189" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C189" s="13"/>
       <c r="D189" s="39"/>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G189" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
       <c r="K189" s="49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -6253,13 +6244,15 @@
       <c r="B190" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C190" s="13"/>
+      <c r="C190" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D190" s="39"/>
       <c r="E190" s="9"/>
       <c r="F190" s="20"/>
-      <c r="G190" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G190" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H190" s="39">
         <v>1</v>
@@ -6267,7 +6260,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -6275,15 +6268,13 @@
       <c r="B191" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C191" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C191" s="13"/>
       <c r="D191" s="39"/>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H191" s="39">
         <v>1</v>
@@ -6291,7 +6282,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -6301,13 +6292,15 @@
       <c r="B192" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C192" s="13"/>
+      <c r="C192" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D192" s="39"/>
       <c r="E192" s="9"/>
       <c r="F192" s="20"/>
-      <c r="G192" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G192" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H192" s="39">
         <v>1</v>
@@ -6315,7 +6308,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -6323,21 +6316,19 @@
       <c r="B193" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C193" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C193" s="13"/>
       <c r="D193" s="39"/>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
       <c r="K193" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -6367,13 +6358,15 @@
       <c r="B195" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C195" s="13"/>
+      <c r="C195" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D195" s="39"/>
       <c r="E195" s="9"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G195" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H195" s="39">
         <v>3</v>
@@ -6381,7 +6374,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -6403,13 +6396,13 @@
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39"/>
@@ -6425,7 +6418,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
       <c r="K197" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -6455,15 +6448,13 @@
       <c r="B199" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C199" s="13"/>
       <c r="D199" s="39"/>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G199" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H199" s="39">
         <v>2</v>
@@ -6471,7 +6462,7 @@
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
       <c r="K199" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -6497,7 +6488,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -6523,7 +6514,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -6553,7 +6544,7 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -6571,7 +6562,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -6595,7 +6586,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
       <c r="K204" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -6640,7 +6631,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -6675,7 +6666,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
       <c r="K208" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -6699,7 +6690,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
       <c r="K209" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -6725,7 +6716,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -6733,7 +6724,7 @@
         <v>43525</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39">
@@ -6749,7 +6740,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
       <c r="K211" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -6773,7 +6764,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="11"/>
       <c r="K212" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -6821,7 +6812,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
       <c r="K214" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -6843,7 +6834,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -6853,13 +6844,15 @@
       <c r="B216" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C216" s="13"/>
+      <c r="C216" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G216" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H216" s="39">
         <v>2</v>
@@ -6867,23 +6860,21 @@
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C217" s="13">
-        <v>1.25</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C217" s="13"/>
       <c r="D217" s="39"/>
       <c r="E217" s="9"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G217" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H217" s="39"/>
       <c r="I217" s="9">
@@ -6913,7 +6904,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
       <c r="K218" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -6923,13 +6914,15 @@
       <c r="B219" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C219" s="13"/>
+      <c r="C219" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D219" s="39"/>
       <c r="E219" s="9"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G219" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H219" s="39">
         <v>1</v>
@@ -6937,13 +6930,13 @@
       <c r="I219" s="9"/>
       <c r="J219" s="11"/>
       <c r="K219" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="39"/>
@@ -6961,13 +6954,13 @@
       </c>
       <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -6983,7 +6976,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -7005,7 +6998,7 @@
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -7013,17 +7006,15 @@
       <c r="B223" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C223" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C223" s="13"/>
       <c r="D223" s="39">
         <v>0.75</v>
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G223" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H223" s="39"/>
       <c r="I223" s="9"/>
@@ -7039,13 +7030,15 @@
       <c r="B224" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C224" s="13"/>
+      <c r="C224" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G224" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H224" s="39">
         <v>1</v>
@@ -7075,13 +7068,13 @@
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39"/>
@@ -7102,16 +7095,16 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
-      <c r="B227" s="20"/>
-      <c r="C227" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B227" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C227" s="13"/>
       <c r="D227" s="39"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G227" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H227" s="39">
         <v>1</v>
@@ -7119,7 +7112,7 @@
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -7163,7 +7156,7 @@
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
       <c r="K229" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -7187,7 +7180,7 @@
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
       <c r="K230" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -7211,13 +7204,13 @@
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
       <c r="K231" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -7245,7 +7238,7 @@
         <v>43800</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39"/>
@@ -7267,7 +7260,7 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -7285,12 +7278,12 @@
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -7311,7 +7304,7 @@
         <v>43831</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -7331,7 +7324,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
@@ -7351,13 +7344,13 @@
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
@@ -7373,13 +7366,13 @@
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39"/>
@@ -7393,23 +7386,21 @@
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C240" s="13">
-        <v>1.25</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C240" s="13"/>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H240" s="39"/>
       <c r="I240" s="9"/>
@@ -7503,7 +7494,7 @@
         <v>43983</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C245" s="13">
         <v>1.25</v>
@@ -7519,7 +7510,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -7529,13 +7520,15 @@
       <c r="B246" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C246" s="13"/>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H246" s="39">
         <v>2</v>
@@ -7543,23 +7536,21 @@
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C247" s="13">
-        <v>1.25</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C247" s="13"/>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H247" s="39">
         <v>3</v>
@@ -7567,7 +7558,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -7591,7 +7582,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
       <c r="K248" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -7599,15 +7590,17 @@
         <v>44075</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C249" s="13"/>
+        <v>219</v>
+      </c>
+      <c r="C249" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G249" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H249" s="39">
         <v>1</v>
@@ -7615,29 +7608,27 @@
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C250" s="13">
-        <v>1.25</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C250" s="13"/>
       <c r="D250" s="39"/>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
       <c r="K250" s="49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -7667,15 +7658,17 @@
         <v>44136</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C252" s="13"/>
+        <v>219</v>
+      </c>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G252" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H252" s="39">
         <v>1</v>
@@ -7689,17 +7682,15 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C253" s="13">
-        <v>1.25</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C253" s="13"/>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
@@ -7711,7 +7702,7 @@
         <v>44166</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -7729,12 +7720,12 @@
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -7755,7 +7746,7 @@
         <v>44197</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -7771,7 +7762,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -7990,7 +7981,7 @@
         <v>44531</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -8008,12 +7999,12 @@
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -8034,7 +8025,7 @@
         <v>44562</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -8050,7 +8041,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -8078,7 +8069,7 @@
         <v>44621</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="39"/>
@@ -8100,7 +8091,7 @@
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -8116,7 +8107,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -8124,7 +8115,7 @@
         <v>44654</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -8150,7 +8141,7 @@
         <v>44682</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -8168,13 +8159,13 @@
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
@@ -8190,13 +8181,13 @@
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39"/>
@@ -8210,13 +8201,13 @@
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C277" s="13">
         <v>1.25</v>
@@ -8234,7 +8225,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -8242,7 +8233,7 @@
         <v>44713</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="39"/>
@@ -8256,13 +8247,13 @@
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C279" s="13">
         <v>1.25</v>
@@ -8280,7 +8271,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -8288,7 +8279,7 @@
         <v>44743</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -8384,7 +8375,7 @@
         <v>44866</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -8402,7 +8393,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -8457,7 +8448,7 @@
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="39">
@@ -8473,12 +8464,12 @@
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -8583,7 +8574,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -8635,15 +8626,17 @@
         <v>45017</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C295" s="13"/>
+        <v>175</v>
+      </c>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H295" s="39">
         <v>1</v>
@@ -11125,7 +11118,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11221,6 +11214,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11242,6 +11238,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>33.458000000000055</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AACC787-EBC6-457C-8AF0-E0F95335FB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="268">
   <si>
     <t>PERIOD</t>
   </si>
@@ -903,7 +902,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1592,25 +1591,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1917,34 +1916,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A286" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1966,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +1986,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2008,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2017,7 +2016,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2030,7 +2029,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2047,7 +2046,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2101,12 +2100,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.789999999999992</v>
+        <v>15.789999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2128,7 +2127,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>39965</v>
       </c>
@@ -2148,7 +2147,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>39995</v>
       </c>
@@ -2168,7 +2167,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40026</v>
       </c>
@@ -2188,7 +2187,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40057</v>
       </c>
@@ -2208,7 +2207,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>40087</v>
       </c>
@@ -2228,7 +2227,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>40118</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>40148</v>
       </c>
@@ -2276,7 +2275,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40179</v>
       </c>
@@ -2314,7 +2313,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>40210</v>
       </c>
@@ -2334,7 +2333,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>40238</v>
       </c>
@@ -2354,7 +2353,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>40269</v>
       </c>
@@ -2374,7 +2373,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>40299</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>40330</v>
       </c>
@@ -2414,7 +2413,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>40360</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -2462,7 +2461,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>40391</v>
       </c>
@@ -2484,7 +2483,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>40422</v>
       </c>
@@ -2508,7 +2507,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>40452</v>
       </c>
@@ -2534,7 +2533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>51</v>
@@ -2556,7 +2555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>240</v>
@@ -2576,7 +2575,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>40483</v>
       </c>
@@ -2600,7 +2599,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>40513</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -2642,7 +2641,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>58</v>
       </c>
@@ -2660,7 +2659,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>40544</v>
       </c>
@@ -2680,7 +2679,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>40575</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>40603</v>
       </c>
@@ -2720,7 +2719,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>40634</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>241</v>
@@ -2766,7 +2765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>40664</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>40695</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2836,7 +2835,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>40725</v>
       </c>
@@ -2860,7 +2859,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>40756</v>
       </c>
@@ -2884,7 +2883,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>40787</v>
       </c>
@@ -2910,7 +2909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -2932,7 +2931,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>69</v>
@@ -2954,7 +2953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>68</v>
@@ -2976,7 +2975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>40817</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>40734</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>40848</v>
       </c>
@@ -3026,7 +3025,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>40848</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>40878</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -3100,7 +3099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>76</v>
@@ -3122,7 +3121,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>78</v>
       </c>
@@ -3140,7 +3139,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>40909</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>59</v>
@@ -3186,7 +3185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -3208,7 +3207,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3224,7 +3223,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>40940</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>40969</v>
       </c>
@@ -3270,7 +3269,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41000</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -3316,7 +3315,7 @@
         <v>41217</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -3338,7 +3337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -3360,7 +3359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>84</v>
@@ -3382,7 +3381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>41030</v>
       </c>
@@ -3406,7 +3405,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>41061</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>51</v>
@@ -3452,7 +3451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>41091</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -3500,7 +3499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>41122</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>41153</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>41183</v>
       </c>
@@ -3574,7 +3573,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>40848</v>
       </c>
@@ -3600,7 +3599,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>51</v>
@@ -3622,7 +3621,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>94</v>
@@ -3644,7 +3643,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41244</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>51</v>
@@ -3692,7 +3691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -3714,7 +3713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>99</v>
       </c>
@@ -3732,7 +3731,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>41275</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -3778,7 +3777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>243</v>
@@ -3798,7 +3797,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -3822,7 +3821,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>84</v>
@@ -3844,7 +3843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>51</v>
@@ -3866,7 +3865,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>105</v>
@@ -3886,7 +3885,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41334</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>237</v>
@@ -3938,7 +3937,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -3960,7 +3959,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>41365</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>41278</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>97</v>
@@ -4010,7 +4009,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>84</v>
@@ -4032,7 +4031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41395</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>69</v>
@@ -4078,7 +4077,7 @@
       </c>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>41426</v>
       </c>
@@ -4102,7 +4101,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>41456</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>59</v>
@@ -4150,7 +4149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -4170,7 +4169,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>41487</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>180</v>
@@ -4222,7 +4221,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>117</v>
@@ -4242,7 +4241,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>41518</v>
       </c>
@@ -4268,7 +4267,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>41548</v>
       </c>
@@ -4292,7 +4291,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>41579</v>
       </c>
@@ -4320,7 +4319,7 @@
       </c>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>41609</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>122</v>
@@ -4372,7 +4371,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>123</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>41640</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>245</v>
@@ -4434,7 +4433,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>41671</v>
       </c>
@@ -4460,7 +4459,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>41699</v>
       </c>
@@ -4486,7 +4485,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>41730</v>
       </c>
@@ -4512,7 +4511,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>41760</v>
       </c>
@@ -4538,7 +4537,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>41791</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>41821</v>
       </c>
@@ -4586,7 +4585,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>41852</v>
       </c>
@@ -4606,7 +4605,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>41883</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
         <v>41913</v>
       </c>
@@ -4660,7 +4659,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>41944</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>134</v>
@@ -4708,7 +4707,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>41974</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>137</v>
@@ -4756,7 +4755,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>138</v>
       </c>
@@ -4774,7 +4773,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>42005</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>59</v>
@@ -4816,7 +4815,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>84</v>
@@ -4838,7 +4837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>141</v>
@@ -4860,7 +4859,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42036</v>
       </c>
@@ -4886,7 +4885,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>42065</v>
       </c>
@@ -4912,7 +4911,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42095</v>
       </c>
@@ -4938,7 +4937,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42125</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>145</v>
@@ -4986,7 +4985,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42156</v>
       </c>
@@ -5012,7 +5011,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42186</v>
       </c>
@@ -5036,7 +5035,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42217</v>
       </c>
@@ -5062,7 +5061,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42248</v>
       </c>
@@ -5086,7 +5085,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>42278</v>
       </c>
@@ -5110,7 +5109,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>42309</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>152</v>
@@ -5158,7 +5157,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42339</v>
       </c>
@@ -5184,7 +5183,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>154</v>
       </c>
@@ -5202,7 +5201,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>42370</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>156</v>
@@ -5248,7 +5247,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42371</v>
       </c>
@@ -5272,7 +5271,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>42430</v>
       </c>
@@ -5296,7 +5295,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>42461</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>246</v>
@@ -5342,7 +5341,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>42491</v>
       </c>
@@ -5368,7 +5367,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>42522</v>
       </c>
@@ -5392,7 +5391,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>42552</v>
       </c>
@@ -5416,7 +5415,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>42583</v>
       </c>
@@ -5440,7 +5439,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>42614</v>
       </c>
@@ -5460,7 +5459,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>42644</v>
       </c>
@@ -5484,7 +5483,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>42675</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>42705</v>
       </c>
@@ -5534,7 +5533,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>162</v>
       </c>
@@ -5552,7 +5551,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>42736</v>
       </c>
@@ -5572,7 +5571,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EDATE(A160,1)</f>
         <v>42767</v>
@@ -5593,7 +5592,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <f t="shared" ref="A162:A168" si="0">EDATE(A161,1)</f>
         <v>42795</v>
@@ -5614,7 +5613,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -5641,7 +5640,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>59</v>
@@ -5661,7 +5660,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>84</v>
@@ -5683,7 +5682,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>59</v>
@@ -5703,7 +5702,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>42856</v>
@@ -5724,7 +5723,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -5745,7 +5744,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>42917</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>51</v>
@@ -5793,7 +5792,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>42948</v>
@@ -5820,7 +5819,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>51</v>
@@ -5842,7 +5841,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>84</v>
@@ -5864,7 +5863,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>51</v>
@@ -5889,7 +5888,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>42979</v>
@@ -5910,7 +5909,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="50"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A179" si="1">EDATE(A175,1)</f>
         <v>43009</v>
@@ -5937,7 +5936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>84</v>
@@ -5959,7 +5958,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>43040</v>
@@ -5986,7 +5985,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6013,7 +6012,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>237</v>
@@ -6035,7 +6034,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>164</v>
       </c>
@@ -6053,7 +6052,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43101</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>59</v>
@@ -6101,7 +6100,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>51</v>
@@ -6125,7 +6124,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>51</v>
@@ -6149,7 +6148,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>43132</v>
       </c>
@@ -6169,7 +6168,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>43160</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -6217,7 +6216,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -6237,7 +6236,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>43191</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>51</v>
@@ -6285,7 +6284,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43221</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>59</v>
@@ -6331,7 +6330,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43252</v>
       </c>
@@ -6351,7 +6350,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43282</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>69</v>
@@ -6399,7 +6398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>175</v>
@@ -6421,7 +6420,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -6443,7 +6442,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>84</v>
@@ -6465,7 +6464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>43313</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>43344</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>43374</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>180</v>
@@ -6565,7 +6564,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>43405</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>59</v>
@@ -6609,7 +6608,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>43435</v>
       </c>
@@ -6629,7 +6628,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>183</v>
       </c>
@@ -6647,7 +6646,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>43466</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>84</v>
@@ -6693,7 +6692,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>43497</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>43525</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>51</v>
@@ -6767,7 +6766,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>43556</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>51</v>
@@ -6815,7 +6814,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>84</v>
@@ -6837,7 +6836,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>43586</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>191</v>
@@ -6883,7 +6882,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>43617</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>43647</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>194</v>
@@ -6957,7 +6956,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>196</v>
@@ -6979,7 +6978,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>84</v>
@@ -7001,7 +7000,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -7023,7 +7022,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>43678</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -7071,7 +7070,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>51</v>
@@ -7093,7 +7092,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>51</v>
@@ -7115,7 +7114,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>43709</v>
       </c>
@@ -7135,7 +7134,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>43739</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -7183,7 +7182,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>43770</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>103</v>
@@ -7233,7 +7232,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>43800</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>103</v>
@@ -7281,7 +7280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>206</v>
       </c>
@@ -7299,7 +7298,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>43831</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>59</v>
@@ -7347,7 +7346,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>209</v>
@@ -7369,7 +7368,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>101</v>
@@ -7389,7 +7388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>212</v>
@@ -7409,7 +7408,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43862</v>
       </c>
@@ -7429,7 +7428,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>43891</v>
       </c>
@@ -7449,7 +7448,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>43922</v>
       </c>
@@ -7469,7 +7468,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>43952</v>
       </c>
@@ -7489,7 +7488,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>43983</v>
       </c>
@@ -7513,7 +7512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>44013</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>216</v>
@@ -7561,7 +7560,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>44044</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>44075</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>219</v>
@@ -7631,7 +7630,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>44105</v>
       </c>
@@ -7653,7 +7652,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>44136</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -7697,7 +7696,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>44166</v>
       </c>
@@ -7723,7 +7722,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="48" t="s">
         <v>223</v>
       </c>
@@ -7741,7 +7740,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>44197</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A256,1)</f>
         <v>44228</v>
@@ -7786,7 +7785,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A267" si="2">EDATE(A257,1)</f>
         <v>44256</v>
@@ -7807,7 +7806,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="2"/>
         <v>44287</v>
@@ -7828,7 +7827,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -7849,7 +7848,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -7870,7 +7869,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -7891,7 +7890,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -7912,7 +7911,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -7933,7 +7932,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>44470</v>
@@ -7954,7 +7953,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>44501</v>
@@ -7975,7 +7974,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="2"/>
         <v>44531</v>
@@ -8002,7 +8001,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23" t="s">
         <v>226</v>
       </c>
@@ -8020,7 +8019,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>44562</v>
       </c>
@@ -8044,7 +8043,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>44593</v>
       </c>
@@ -8064,7 +8063,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>44621</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>219</v>
@@ -8110,7 +8109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>44654</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>44682</v>
       </c>
@@ -8162,7 +8161,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>219</v>
@@ -8184,7 +8183,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>213</v>
@@ -8204,7 +8203,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>232</v>
@@ -8228,7 +8227,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>44713</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>213</v>
@@ -8274,7 +8273,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>44743</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>44774</v>
@@ -8321,7 +8320,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A284" si="3">EDATE(A281,1)</f>
         <v>44805</v>
@@ -8342,7 +8341,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="3"/>
         <v>44835</v>
@@ -8369,7 +8368,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>44866</v>
@@ -8396,7 +8395,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>51</v>
@@ -8418,7 +8417,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>44896</v>
@@ -8445,7 +8444,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>237</v>
@@ -8467,7 +8466,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>265</v>
       </c>
@@ -8485,7 +8484,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>44927</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>51</v>
@@ -8531,7 +8530,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>44958</v>
       </c>
@@ -8551,7 +8550,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>44986</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>51</v>
@@ -8599,7 +8598,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>51</v>
@@ -8621,12 +8620,12 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>45017</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="C295" s="13">
         <v>1.25</v>
@@ -8647,11 +8646,13 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>45047</v>
       </c>
-      <c r="B296" s="20"/>
+      <c r="B296" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C296" s="13"/>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
@@ -8660,12 +8661,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H296" s="39"/>
+      <c r="H296" s="39">
+        <v>1</v>
+      </c>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="20"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K296" s="50">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>45078</v>
       </c>
@@ -8683,7 +8688,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>45108</v>
       </c>
@@ -8701,7 +8706,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>45139</v>
       </c>
@@ -8719,7 +8724,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>45170</v>
       </c>
@@ -8737,7 +8742,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>45200</v>
       </c>
@@ -8755,7 +8760,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>45231</v>
       </c>
@@ -8773,7 +8778,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>45261</v>
       </c>
@@ -8791,7 +8796,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>45292</v>
       </c>
@@ -8809,7 +8814,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>45323</v>
       </c>
@@ -8827,7 +8832,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>45352</v>
       </c>
@@ -8845,7 +8850,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>45383</v>
       </c>
@@ -8863,7 +8868,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45413</v>
       </c>
@@ -8881,7 +8886,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45444</v>
       </c>
@@ -8899,7 +8904,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>45474</v>
       </c>
@@ -8917,7 +8922,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>45505</v>
       </c>
@@ -8935,7 +8940,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>45536</v>
       </c>
@@ -8953,7 +8958,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>45566</v>
       </c>
@@ -8971,7 +8976,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>45597</v>
       </c>
@@ -8989,7 +8994,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>45627</v>
       </c>
@@ -9007,7 +9012,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>45658</v>
       </c>
@@ -9025,7 +9030,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>45689</v>
       </c>
@@ -9043,7 +9048,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>45717</v>
       </c>
@@ -9061,7 +9066,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>45748</v>
       </c>
@@ -9079,7 +9084,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>45778</v>
       </c>
@@ -9097,7 +9102,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>45809</v>
       </c>
@@ -9115,7 +9120,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>45839</v>
       </c>
@@ -9133,7 +9138,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>45870</v>
       </c>
@@ -9151,7 +9156,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>45901</v>
       </c>
@@ -9169,7 +9174,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>45931</v>
       </c>
@@ -9187,7 +9192,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>45962</v>
       </c>
@@ -9205,7 +9210,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>45992</v>
       </c>
@@ -9223,7 +9228,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>46023</v>
       </c>
@@ -9241,7 +9246,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>46054</v>
       </c>
@@ -9259,7 +9264,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>46082</v>
       </c>
@@ -9277,7 +9282,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>46113</v>
       </c>
@@ -9295,7 +9300,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>46143</v>
       </c>
@@ -9313,7 +9318,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>46174</v>
       </c>
@@ -9331,7 +9336,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>46204</v>
       </c>
@@ -9349,7 +9354,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>46235</v>
       </c>
@@ -9367,7 +9372,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>46266</v>
       </c>
@@ -9385,7 +9390,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>46296</v>
       </c>
@@ -9403,7 +9408,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>46327</v>
       </c>
@@ -9421,7 +9426,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>46357</v>
       </c>
@@ -9439,7 +9444,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>46388</v>
       </c>
@@ -9457,7 +9462,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>46419</v>
       </c>
@@ -9475,7 +9480,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>46447</v>
       </c>
@@ -9493,7 +9498,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>46478</v>
       </c>
@@ -9511,7 +9516,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>46508</v>
       </c>
@@ -9529,7 +9534,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>46539</v>
       </c>
@@ -9547,7 +9552,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>46569</v>
       </c>
@@ -9565,7 +9570,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>46600</v>
       </c>
@@ -9583,7 +9588,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>46631</v>
       </c>
@@ -9601,7 +9606,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>46661</v>
       </c>
@@ -9619,7 +9624,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>46692</v>
       </c>
@@ -9637,7 +9642,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>46722</v>
       </c>
@@ -9655,7 +9660,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>46753</v>
       </c>
@@ -9673,7 +9678,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>46784</v>
       </c>
@@ -9691,7 +9696,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>46813</v>
       </c>
@@ -9709,7 +9714,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>46844</v>
       </c>
@@ -9727,7 +9732,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>46874</v>
       </c>
@@ -9745,7 +9750,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>46905</v>
       </c>
@@ -9763,7 +9768,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>46935</v>
       </c>
@@ -9781,7 +9786,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>46966</v>
       </c>
@@ -9799,7 +9804,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>46997</v>
       </c>
@@ -9817,7 +9822,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>47027</v>
       </c>
@@ -9835,7 +9840,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>47058</v>
       </c>
@@ -9853,7 +9858,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>47088</v>
       </c>
@@ -9871,7 +9876,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>47119</v>
       </c>
@@ -9889,7 +9894,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -9905,7 +9910,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -9921,7 +9926,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -9937,7 +9942,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9953,7 +9958,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9969,7 +9974,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9985,7 +9990,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10001,7 +10006,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10017,7 +10022,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10033,7 +10038,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10049,7 +10054,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10065,7 +10070,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10081,7 +10086,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10097,7 +10102,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10113,7 +10118,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10129,7 +10134,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10145,7 +10150,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10161,7 +10166,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10177,7 +10182,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10193,7 +10198,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10209,7 +10214,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10225,7 +10230,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10241,7 +10246,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10257,7 +10262,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10273,7 +10278,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10289,7 +10294,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10305,7 +10310,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10321,7 +10326,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10337,7 +10342,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10353,7 +10358,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10369,7 +10374,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10385,7 +10390,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10401,7 +10406,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10417,7 +10422,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10433,7 +10438,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10449,7 +10454,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10465,7 +10470,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10481,7 +10486,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10497,7 +10502,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10513,7 +10518,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10529,7 +10534,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10545,7 +10550,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10561,7 +10566,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10577,7 +10582,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10593,7 +10598,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10609,7 +10614,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10625,7 +10630,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10641,7 +10646,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10657,7 +10662,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10673,7 +10678,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10689,7 +10694,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10705,7 +10710,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10721,7 +10726,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -10737,7 +10742,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -10753,7 +10758,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -10769,7 +10774,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -10785,7 +10790,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -10801,7 +10806,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -10817,7 +10822,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -10833,7 +10838,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -10849,7 +10854,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -10865,7 +10870,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -10881,7 +10886,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -10897,7 +10902,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -10913,7 +10918,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -10929,7 +10934,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -10945,7 +10950,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -10961,7 +10966,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -10977,7 +10982,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -10993,7 +10998,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11009,7 +11014,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11025,7 +11030,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11041,7 +11046,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11057,7 +11062,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="41"/>
       <c r="B438" s="15"/>
       <c r="C438" s="42"/>
@@ -11088,10 +11093,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11114,28 +11119,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11148,7 +11153,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11177,7 +11182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -11203,17 +11208,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>267</v>
       </c>
@@ -11237,10 +11242,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>33.458000000000055</v>
+        <v>32.458000000000055</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -11268,7 +11273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11294,7 +11299,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11320,7 +11325,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11346,7 +11351,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11372,7 +11377,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11398,7 +11403,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11424,7 +11429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11450,7 +11455,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11470,7 +11475,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11490,7 +11495,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11531,7 +11536,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11552,7 +11557,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11573,7 +11578,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11594,7 +11599,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11615,7 +11620,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11636,7 +11641,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11657,7 +11662,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11678,7 +11683,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11699,7 +11704,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11720,7 +11725,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11741,7 +11746,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11762,7 +11767,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11783,7 +11788,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11804,7 +11809,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11825,7 +11830,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11846,7 +11851,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11867,7 +11872,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11888,7 +11893,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11909,7 +11914,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11930,7 +11935,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11939,7 +11944,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11948,7 +11953,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11957,7 +11962,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11966,7 +11971,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11975,7 +11980,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11984,7 +11989,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11993,7 +11998,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12002,7 +12007,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12011,7 +12016,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12020,7 +12025,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12029,7 +12034,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12038,7 +12043,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12047,7 +12052,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12056,7 +12061,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12065,7 +12070,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12074,7 +12079,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12083,7 +12088,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12092,7 +12097,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12101,7 +12106,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12110,7 +12115,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12119,7 +12124,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12128,7 +12133,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12137,7 +12142,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12146,7 +12151,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12155,7 +12160,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12164,7 +12169,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12173,7 +12178,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12182,7 +12187,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12191,7 +12196,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="268">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1591,7 +1591,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K316" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1920,12 +1920,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K438"/>
+  <dimension ref="A2:K316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A286" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A293" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="K297" sqref="K297"/>
+      <selection pane="bottomLeft" activeCell="K299" sqref="K299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2090,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.668000000000063</v>
+        <v>19.168000000000063</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2100,7 +2100,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.789999999999992</v>
+        <v>17.289999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5872,7 +5872,7 @@
       <c r="D174" s="39"/>
       <c r="E174" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.668000000000063</v>
+        <v>19.168000000000063</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="13" t="str">
@@ -8653,13 +8653,15 @@
       <c r="B296" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C296" s="13"/>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D296" s="39"/>
       <c r="E296" s="9"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H296" s="39">
         <v>1</v>
@@ -8674,25 +8676,33 @@
       <c r="A297" s="40">
         <v>45078</v>
       </c>
-      <c r="B297" s="20"/>
-      <c r="C297" s="13"/>
+      <c r="B297" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H297" s="39"/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H297" s="39">
+        <v>1</v>
+      </c>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="20"/>
+      <c r="K297" s="50">
+        <v>45079</v>
+      </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B298" s="20"/>
+      <c r="A298" s="40"/>
+      <c r="B298" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
@@ -8704,11 +8714,13 @@
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
-      <c r="K298" s="20"/>
+      <c r="K298" s="50">
+        <v>45096</v>
+      </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -8726,7 +8738,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -8744,7 +8756,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -8762,7 +8774,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -8780,7 +8792,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -8798,7 +8810,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -8815,9 +8827,7 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="40">
-        <v>45323</v>
-      </c>
+      <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
       <c r="D305" s="39"/>
@@ -8833,9 +8843,7 @@
       <c r="K305" s="20"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="40">
-        <v>45352</v>
-      </c>
+      <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -8851,9 +8859,7 @@
       <c r="K306" s="20"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="40">
-        <v>45383</v>
-      </c>
+      <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
       <c r="D307" s="39"/>
@@ -8869,9 +8875,7 @@
       <c r="K307" s="20"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="40">
-        <v>45413</v>
-      </c>
+      <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
       <c r="D308" s="39"/>
@@ -8887,9 +8891,7 @@
       <c r="K308" s="20"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="40">
-        <v>45444</v>
-      </c>
+      <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -8905,9 +8907,7 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="40">
-        <v>45474</v>
-      </c>
+      <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
@@ -8923,9 +8923,7 @@
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="40">
-        <v>45505</v>
-      </c>
+      <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
@@ -8941,9 +8939,7 @@
       <c r="K311" s="20"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="40">
-        <v>45536</v>
-      </c>
+      <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
@@ -8959,9 +8955,7 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="40">
-        <v>45566</v>
-      </c>
+      <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
@@ -8977,9 +8971,7 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="40">
-        <v>45597</v>
-      </c>
+      <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
@@ -8995,9 +8987,7 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="40">
-        <v>45627</v>
-      </c>
+      <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -9013,2070 +9003,20 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
-      <c r="D316" s="39"/>
+      <c r="A316" s="41"/>
+      <c r="B316" s="15"/>
+      <c r="C316" s="42"/>
+      <c r="D316" s="43"/>
       <c r="E316" s="9"/>
-      <c r="F316" s="20"/>
+      <c r="F316" s="15"/>
       <c r="G316" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H316" s="39"/>
+      <c r="H316" s="43"/>
       <c r="I316" s="9"/>
-      <c r="J316" s="11"/>
-      <c r="K316" s="20"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B317" s="20"/>
-      <c r="C317" s="13"/>
-      <c r="D317" s="39"/>
-      <c r="E317" s="9"/>
-      <c r="F317" s="20"/>
-      <c r="G317" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H317" s="39"/>
-      <c r="I317" s="9"/>
-      <c r="J317" s="11"/>
-      <c r="K317" s="20"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
-      <c r="D318" s="39"/>
-      <c r="E318" s="9"/>
-      <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H318" s="39"/>
-      <c r="I318" s="9"/>
-      <c r="J318" s="11"/>
-      <c r="K318" s="20"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
-      <c r="D319" s="39"/>
-      <c r="E319" s="9"/>
-      <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H319" s="39"/>
-      <c r="I319" s="9"/>
-      <c r="J319" s="11"/>
-      <c r="K319" s="20"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="40">
-        <v>45778</v>
-      </c>
-      <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
-      <c r="D320" s="39"/>
-      <c r="E320" s="9"/>
-      <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H320" s="39"/>
-      <c r="I320" s="9"/>
-      <c r="J320" s="11"/>
-      <c r="K320" s="20"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="40">
-        <v>45809</v>
-      </c>
-      <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
-      <c r="D321" s="39"/>
-      <c r="E321" s="9"/>
-      <c r="F321" s="20"/>
-      <c r="G321" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H321" s="39"/>
-      <c r="I321" s="9"/>
-      <c r="J321" s="11"/>
-      <c r="K321" s="20"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B322" s="20"/>
-      <c r="C322" s="13"/>
-      <c r="D322" s="39"/>
-      <c r="E322" s="9"/>
-      <c r="F322" s="20"/>
-      <c r="G322" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H322" s="39"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="11"/>
-      <c r="K322" s="20"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B323" s="20"/>
-      <c r="C323" s="13"/>
-      <c r="D323" s="39"/>
-      <c r="E323" s="9"/>
-      <c r="F323" s="20"/>
-      <c r="G323" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H323" s="39"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="11"/>
-      <c r="K323" s="20"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="40">
-        <v>45901</v>
-      </c>
-      <c r="B324" s="20"/>
-      <c r="C324" s="13"/>
-      <c r="D324" s="39"/>
-      <c r="E324" s="9"/>
-      <c r="F324" s="20"/>
-      <c r="G324" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H324" s="39"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="11"/>
-      <c r="K324" s="20"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="40">
-        <v>45931</v>
-      </c>
-      <c r="B325" s="20"/>
-      <c r="C325" s="13"/>
-      <c r="D325" s="39"/>
-      <c r="E325" s="9"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H325" s="39"/>
-      <c r="I325" s="9"/>
-      <c r="J325" s="11"/>
-      <c r="K325" s="20"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="40">
-        <v>45962</v>
-      </c>
-      <c r="B326" s="20"/>
-      <c r="C326" s="13"/>
-      <c r="D326" s="39"/>
-      <c r="E326" s="9"/>
-      <c r="F326" s="20"/>
-      <c r="G326" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H326" s="39"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="11"/>
-      <c r="K326" s="20"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B327" s="20"/>
-      <c r="C327" s="13"/>
-      <c r="D327" s="39"/>
-      <c r="E327" s="9"/>
-      <c r="F327" s="20"/>
-      <c r="G327" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H327" s="39"/>
-      <c r="I327" s="9"/>
-      <c r="J327" s="11"/>
-      <c r="K327" s="20"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B328" s="20"/>
-      <c r="C328" s="13"/>
-      <c r="D328" s="39"/>
-      <c r="E328" s="9"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H328" s="39"/>
-      <c r="I328" s="9"/>
-      <c r="J328" s="11"/>
-      <c r="K328" s="20"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B329" s="20"/>
-      <c r="C329" s="13"/>
-      <c r="D329" s="39"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="20"/>
-      <c r="G329" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H329" s="39"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="11"/>
-      <c r="K329" s="20"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="40">
-        <v>46082</v>
-      </c>
-      <c r="B330" s="20"/>
-      <c r="C330" s="13"/>
-      <c r="D330" s="39"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="20"/>
-      <c r="G330" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H330" s="39"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="11"/>
-      <c r="K330" s="20"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B331" s="20"/>
-      <c r="C331" s="13"/>
-      <c r="D331" s="39"/>
-      <c r="E331" s="9"/>
-      <c r="F331" s="20"/>
-      <c r="G331" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H331" s="39"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="40">
-        <v>46143</v>
-      </c>
-      <c r="B332" s="20"/>
-      <c r="C332" s="13"/>
-      <c r="D332" s="39"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="20"/>
-      <c r="G332" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H332" s="39"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="11"/>
-      <c r="K332" s="20"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="40">
-        <v>46174</v>
-      </c>
-      <c r="B333" s="20"/>
-      <c r="C333" s="13"/>
-      <c r="D333" s="39"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="20"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H333" s="39"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="40">
-        <v>46204</v>
-      </c>
-      <c r="B334" s="20"/>
-      <c r="C334" s="13"/>
-      <c r="D334" s="39"/>
-      <c r="E334" s="9"/>
-      <c r="F334" s="20"/>
-      <c r="G334" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H334" s="39"/>
-      <c r="I334" s="9"/>
-      <c r="J334" s="11"/>
-      <c r="K334" s="20"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="40">
-        <v>46235</v>
-      </c>
-      <c r="B335" s="20"/>
-      <c r="C335" s="13"/>
-      <c r="D335" s="39"/>
-      <c r="E335" s="9"/>
-      <c r="F335" s="20"/>
-      <c r="G335" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H335" s="39"/>
-      <c r="I335" s="9"/>
-      <c r="J335" s="11"/>
-      <c r="K335" s="20"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="40">
-        <v>46266</v>
-      </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="13"/>
-      <c r="D336" s="39"/>
-      <c r="E336" s="9"/>
-      <c r="F336" s="20"/>
-      <c r="G336" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H336" s="39"/>
-      <c r="I336" s="9"/>
-      <c r="J336" s="11"/>
-      <c r="K336" s="20"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="40">
-        <v>46296</v>
-      </c>
-      <c r="B337" s="20"/>
-      <c r="C337" s="13"/>
-      <c r="D337" s="39"/>
-      <c r="E337" s="9"/>
-      <c r="F337" s="20"/>
-      <c r="G337" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H337" s="39"/>
-      <c r="I337" s="9"/>
-      <c r="J337" s="11"/>
-      <c r="K337" s="20"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" s="40">
-        <v>46327</v>
-      </c>
-      <c r="B338" s="20"/>
-      <c r="C338" s="13"/>
-      <c r="D338" s="39"/>
-      <c r="E338" s="9"/>
-      <c r="F338" s="20"/>
-      <c r="G338" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H338" s="39"/>
-      <c r="I338" s="9"/>
-      <c r="J338" s="11"/>
-      <c r="K338" s="20"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="40">
-        <v>46357</v>
-      </c>
-      <c r="B339" s="20"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="39"/>
-      <c r="E339" s="9"/>
-      <c r="F339" s="20"/>
-      <c r="G339" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H339" s="39"/>
-      <c r="I339" s="9"/>
-      <c r="J339" s="11"/>
-      <c r="K339" s="20"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="40">
-        <v>46388</v>
-      </c>
-      <c r="B340" s="20"/>
-      <c r="C340" s="13"/>
-      <c r="D340" s="39"/>
-      <c r="E340" s="9"/>
-      <c r="F340" s="20"/>
-      <c r="G340" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H340" s="39"/>
-      <c r="I340" s="9"/>
-      <c r="J340" s="11"/>
-      <c r="K340" s="20"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="40">
-        <v>46419</v>
-      </c>
-      <c r="B341" s="20"/>
-      <c r="C341" s="13"/>
-      <c r="D341" s="39"/>
-      <c r="E341" s="9"/>
-      <c r="F341" s="20"/>
-      <c r="G341" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H341" s="39"/>
-      <c r="I341" s="9"/>
-      <c r="J341" s="11"/>
-      <c r="K341" s="20"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="40">
-        <v>46447</v>
-      </c>
-      <c r="B342" s="20"/>
-      <c r="C342" s="13"/>
-      <c r="D342" s="39"/>
-      <c r="E342" s="9"/>
-      <c r="F342" s="20"/>
-      <c r="G342" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H342" s="39"/>
-      <c r="I342" s="9"/>
-      <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="40">
-        <v>46478</v>
-      </c>
-      <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
-      <c r="D343" s="39"/>
-      <c r="E343" s="9"/>
-      <c r="F343" s="20"/>
-      <c r="G343" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H343" s="39"/>
-      <c r="I343" s="9"/>
-      <c r="J343" s="11"/>
-      <c r="K343" s="20"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="40">
-        <v>46508</v>
-      </c>
-      <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
-      <c r="D344" s="39"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H344" s="39"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="11"/>
-      <c r="K344" s="20"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="40">
-        <v>46539</v>
-      </c>
-      <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
-      <c r="D345" s="39"/>
-      <c r="E345" s="9"/>
-      <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H345" s="39"/>
-      <c r="I345" s="9"/>
-      <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A346" s="40">
-        <v>46569</v>
-      </c>
-      <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
-      <c r="D346" s="39"/>
-      <c r="E346" s="9"/>
-      <c r="F346" s="20"/>
-      <c r="G346" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H346" s="39"/>
-      <c r="I346" s="9"/>
-      <c r="J346" s="11"/>
-      <c r="K346" s="20"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="40">
-        <v>46600</v>
-      </c>
-      <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
-      <c r="D347" s="39"/>
-      <c r="E347" s="9"/>
-      <c r="F347" s="20"/>
-      <c r="G347" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H347" s="39"/>
-      <c r="I347" s="9"/>
-      <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="40">
-        <v>46631</v>
-      </c>
-      <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
-      <c r="D348" s="39"/>
-      <c r="E348" s="9"/>
-      <c r="F348" s="20"/>
-      <c r="G348" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H348" s="39"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="11"/>
-      <c r="K348" s="20"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="40">
-        <v>46661</v>
-      </c>
-      <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
-      <c r="D349" s="39"/>
-      <c r="E349" s="9"/>
-      <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H349" s="39"/>
-      <c r="I349" s="9"/>
-      <c r="J349" s="11"/>
-      <c r="K349" s="20"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="40">
-        <v>46692</v>
-      </c>
-      <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
-      <c r="D350" s="39"/>
-      <c r="E350" s="9"/>
-      <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H350" s="39"/>
-      <c r="I350" s="9"/>
-      <c r="J350" s="11"/>
-      <c r="K350" s="20"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="40">
-        <v>46722</v>
-      </c>
-      <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="39"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H351" s="39"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="11"/>
-      <c r="K351" s="20"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="40">
-        <v>46753</v>
-      </c>
-      <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
-      <c r="D352" s="39"/>
-      <c r="E352" s="9"/>
-      <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H352" s="39"/>
-      <c r="I352" s="9"/>
-      <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="40">
-        <v>46784</v>
-      </c>
-      <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="39"/>
-      <c r="E353" s="9"/>
-      <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H353" s="39"/>
-      <c r="I353" s="9"/>
-      <c r="J353" s="11"/>
-      <c r="K353" s="20"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="40">
-        <v>46813</v>
-      </c>
-      <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="39"/>
-      <c r="E354" s="9"/>
-      <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H354" s="39"/>
-      <c r="I354" s="9"/>
-      <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="40">
-        <v>46844</v>
-      </c>
-      <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
-      <c r="D355" s="39"/>
-      <c r="E355" s="9"/>
-      <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H355" s="39"/>
-      <c r="I355" s="9"/>
-      <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="40">
-        <v>46874</v>
-      </c>
-      <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
-      <c r="D356" s="39"/>
-      <c r="E356" s="9"/>
-      <c r="F356" s="20"/>
-      <c r="G356" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H356" s="39"/>
-      <c r="I356" s="9"/>
-      <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="40">
-        <v>46905</v>
-      </c>
-      <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
-      <c r="D357" s="39"/>
-      <c r="E357" s="9"/>
-      <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H357" s="39"/>
-      <c r="I357" s="9"/>
-      <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="40">
-        <v>46935</v>
-      </c>
-      <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
-      <c r="D358" s="39"/>
-      <c r="E358" s="9"/>
-      <c r="F358" s="20"/>
-      <c r="G358" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H358" s="39"/>
-      <c r="I358" s="9"/>
-      <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40">
-        <v>46966</v>
-      </c>
-      <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
-      <c r="D359" s="39"/>
-      <c r="E359" s="9"/>
-      <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H359" s="39"/>
-      <c r="I359" s="9"/>
-      <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40">
-        <v>46997</v>
-      </c>
-      <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
-      <c r="D360" s="39"/>
-      <c r="E360" s="9"/>
-      <c r="F360" s="20"/>
-      <c r="G360" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H360" s="39"/>
-      <c r="I360" s="9"/>
-      <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40">
-        <v>47027</v>
-      </c>
-      <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
-      <c r="D361" s="39"/>
-      <c r="E361" s="9"/>
-      <c r="F361" s="20"/>
-      <c r="G361" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H361" s="39"/>
-      <c r="I361" s="9"/>
-      <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="40">
-        <v>47058</v>
-      </c>
-      <c r="B362" s="20"/>
-      <c r="C362" s="13"/>
-      <c r="D362" s="39"/>
-      <c r="E362" s="9"/>
-      <c r="F362" s="20"/>
-      <c r="G362" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H362" s="39"/>
-      <c r="I362" s="9"/>
-      <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40">
-        <v>47088</v>
-      </c>
-      <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
-      <c r="D363" s="39"/>
-      <c r="E363" s="9"/>
-      <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H363" s="39"/>
-      <c r="I363" s="9"/>
-      <c r="J363" s="11"/>
-      <c r="K363" s="20"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="40">
-        <v>47119</v>
-      </c>
-      <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="39"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H364" s="39"/>
-      <c r="I364" s="9"/>
-      <c r="J364" s="11"/>
-      <c r="K364" s="20"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="40"/>
-      <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
-      <c r="D365" s="39"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H365" s="39"/>
-      <c r="I365" s="9"/>
-      <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="40"/>
-      <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
-      <c r="D366" s="39"/>
-      <c r="E366" s="9"/>
-      <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H366" s="39"/>
-      <c r="I366" s="9"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="40"/>
-      <c r="B367" s="20"/>
-      <c r="C367" s="13"/>
-      <c r="D367" s="39"/>
-      <c r="E367" s="9"/>
-      <c r="F367" s="20"/>
-      <c r="G367" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H367" s="39"/>
-      <c r="I367" s="9"/>
-      <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="40"/>
-      <c r="B368" s="20"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="39"/>
-      <c r="E368" s="9"/>
-      <c r="F368" s="20"/>
-      <c r="G368" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H368" s="39"/>
-      <c r="I368" s="9"/>
-      <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="40"/>
-      <c r="B369" s="20"/>
-      <c r="C369" s="13"/>
-      <c r="D369" s="39"/>
-      <c r="E369" s="9"/>
-      <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H369" s="39"/>
-      <c r="I369" s="9"/>
-      <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="40"/>
-      <c r="B370" s="20"/>
-      <c r="C370" s="13"/>
-      <c r="D370" s="39"/>
-      <c r="E370" s="9"/>
-      <c r="F370" s="20"/>
-      <c r="G370" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H370" s="39"/>
-      <c r="I370" s="9"/>
-      <c r="J370" s="11"/>
-      <c r="K370" s="20"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="40"/>
-      <c r="B371" s="20"/>
-      <c r="C371" s="13"/>
-      <c r="D371" s="39"/>
-      <c r="E371" s="9"/>
-      <c r="F371" s="20"/>
-      <c r="G371" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H371" s="39"/>
-      <c r="I371" s="9"/>
-      <c r="J371" s="11"/>
-      <c r="K371" s="20"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A372" s="40"/>
-      <c r="B372" s="20"/>
-      <c r="C372" s="13"/>
-      <c r="D372" s="39"/>
-      <c r="E372" s="9"/>
-      <c r="F372" s="20"/>
-      <c r="G372" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H372" s="39"/>
-      <c r="I372" s="9"/>
-      <c r="J372" s="11"/>
-      <c r="K372" s="20"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="40"/>
-      <c r="B373" s="20"/>
-      <c r="C373" s="13"/>
-      <c r="D373" s="39"/>
-      <c r="E373" s="9"/>
-      <c r="F373" s="20"/>
-      <c r="G373" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H373" s="39"/>
-      <c r="I373" s="9"/>
-      <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="40"/>
-      <c r="B374" s="20"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="39"/>
-      <c r="E374" s="9"/>
-      <c r="F374" s="20"/>
-      <c r="G374" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H374" s="39"/>
-      <c r="I374" s="9"/>
-      <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="40"/>
-      <c r="B375" s="20"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="39"/>
-      <c r="E375" s="9"/>
-      <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H375" s="39"/>
-      <c r="I375" s="9"/>
-      <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40"/>
-      <c r="B376" s="20"/>
-      <c r="C376" s="13"/>
-      <c r="D376" s="39"/>
-      <c r="E376" s="9"/>
-      <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H376" s="39"/>
-      <c r="I376" s="9"/>
-      <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="40"/>
-      <c r="B377" s="20"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="39"/>
-      <c r="E377" s="9"/>
-      <c r="F377" s="20"/>
-      <c r="G377" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H377" s="39"/>
-      <c r="I377" s="9"/>
-      <c r="J377" s="11"/>
-      <c r="K377" s="20"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="40"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="13"/>
-      <c r="D378" s="39"/>
-      <c r="E378" s="9"/>
-      <c r="F378" s="20"/>
-      <c r="G378" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H378" s="39"/>
-      <c r="I378" s="9"/>
-      <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="40"/>
-      <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
-      <c r="D379" s="39"/>
-      <c r="E379" s="9"/>
-      <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H379" s="39"/>
-      <c r="I379" s="9"/>
-      <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="40"/>
-      <c r="B380" s="20"/>
-      <c r="C380" s="13"/>
-      <c r="D380" s="39"/>
-      <c r="E380" s="9"/>
-      <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H380" s="39"/>
-      <c r="I380" s="9"/>
-      <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="40"/>
-      <c r="B381" s="20"/>
-      <c r="C381" s="13"/>
-      <c r="D381" s="39"/>
-      <c r="E381" s="9"/>
-      <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H381" s="39"/>
-      <c r="I381" s="9"/>
-      <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="40"/>
-      <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
-      <c r="D382" s="39"/>
-      <c r="E382" s="9"/>
-      <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H382" s="39"/>
-      <c r="I382" s="9"/>
-      <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40"/>
-      <c r="B383" s="20"/>
-      <c r="C383" s="13"/>
-      <c r="D383" s="39"/>
-      <c r="E383" s="9"/>
-      <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H383" s="39"/>
-      <c r="I383" s="9"/>
-      <c r="J383" s="11"/>
-      <c r="K383" s="20"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="40"/>
-      <c r="B384" s="20"/>
-      <c r="C384" s="13"/>
-      <c r="D384" s="39"/>
-      <c r="E384" s="9"/>
-      <c r="F384" s="20"/>
-      <c r="G384" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H384" s="39"/>
-      <c r="I384" s="9"/>
-      <c r="J384" s="11"/>
-      <c r="K384" s="20"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="40"/>
-      <c r="B385" s="20"/>
-      <c r="C385" s="13"/>
-      <c r="D385" s="39"/>
-      <c r="E385" s="9"/>
-      <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H385" s="39"/>
-      <c r="I385" s="9"/>
-      <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="40"/>
-      <c r="B386" s="20"/>
-      <c r="C386" s="13"/>
-      <c r="D386" s="39"/>
-      <c r="E386" s="9"/>
-      <c r="F386" s="20"/>
-      <c r="G386" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H386" s="39"/>
-      <c r="I386" s="9"/>
-      <c r="J386" s="11"/>
-      <c r="K386" s="20"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="40"/>
-      <c r="B387" s="20"/>
-      <c r="C387" s="13"/>
-      <c r="D387" s="39"/>
-      <c r="E387" s="9"/>
-      <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H387" s="39"/>
-      <c r="I387" s="9"/>
-      <c r="J387" s="11"/>
-      <c r="K387" s="20"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="40"/>
-      <c r="B388" s="20"/>
-      <c r="C388" s="13"/>
-      <c r="D388" s="39"/>
-      <c r="E388" s="9"/>
-      <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H388" s="39"/>
-      <c r="I388" s="9"/>
-      <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="40"/>
-      <c r="B389" s="20"/>
-      <c r="C389" s="13"/>
-      <c r="D389" s="39"/>
-      <c r="E389" s="9"/>
-      <c r="F389" s="20"/>
-      <c r="G389" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H389" s="39"/>
-      <c r="I389" s="9"/>
-      <c r="J389" s="11"/>
-      <c r="K389" s="20"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="40"/>
-      <c r="B390" s="20"/>
-      <c r="C390" s="13"/>
-      <c r="D390" s="39"/>
-      <c r="E390" s="9"/>
-      <c r="F390" s="20"/>
-      <c r="G390" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H390" s="39"/>
-      <c r="I390" s="9"/>
-      <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="40"/>
-      <c r="B391" s="20"/>
-      <c r="C391" s="13"/>
-      <c r="D391" s="39"/>
-      <c r="E391" s="9"/>
-      <c r="F391" s="20"/>
-      <c r="G391" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H391" s="39"/>
-      <c r="I391" s="9"/>
-      <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="40"/>
-      <c r="B392" s="20"/>
-      <c r="C392" s="13"/>
-      <c r="D392" s="39"/>
-      <c r="E392" s="9"/>
-      <c r="F392" s="20"/>
-      <c r="G392" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H392" s="39"/>
-      <c r="I392" s="9"/>
-      <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="40"/>
-      <c r="B393" s="20"/>
-      <c r="C393" s="13"/>
-      <c r="D393" s="39"/>
-      <c r="E393" s="9"/>
-      <c r="F393" s="20"/>
-      <c r="G393" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H393" s="39"/>
-      <c r="I393" s="9"/>
-      <c r="J393" s="11"/>
-      <c r="K393" s="20"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="40"/>
-      <c r="B394" s="20"/>
-      <c r="C394" s="13"/>
-      <c r="D394" s="39"/>
-      <c r="E394" s="9"/>
-      <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H394" s="39"/>
-      <c r="I394" s="9"/>
-      <c r="J394" s="11"/>
-      <c r="K394" s="20"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="40"/>
-      <c r="B395" s="20"/>
-      <c r="C395" s="13"/>
-      <c r="D395" s="39"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="20"/>
-      <c r="G395" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H395" s="39"/>
-      <c r="I395" s="9"/>
-      <c r="J395" s="11"/>
-      <c r="K395" s="20"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40"/>
-      <c r="B396" s="20"/>
-      <c r="C396" s="13"/>
-      <c r="D396" s="39"/>
-      <c r="E396" s="9"/>
-      <c r="F396" s="20"/>
-      <c r="G396" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H396" s="39"/>
-      <c r="I396" s="9"/>
-      <c r="J396" s="11"/>
-      <c r="K396" s="20"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="40"/>
-      <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
-      <c r="D397" s="39"/>
-      <c r="E397" s="9"/>
-      <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H397" s="39"/>
-      <c r="I397" s="9"/>
-      <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="40"/>
-      <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
-      <c r="D398" s="39"/>
-      <c r="E398" s="9"/>
-      <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H398" s="39"/>
-      <c r="I398" s="9"/>
-      <c r="J398" s="11"/>
-      <c r="K398" s="20"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="40"/>
-      <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
-      <c r="D399" s="39"/>
-      <c r="E399" s="9"/>
-      <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H399" s="39"/>
-      <c r="I399" s="9"/>
-      <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="40"/>
-      <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
-      <c r="D400" s="39"/>
-      <c r="E400" s="9"/>
-      <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H400" s="39"/>
-      <c r="I400" s="9"/>
-      <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40"/>
-      <c r="B401" s="20"/>
-      <c r="C401" s="13"/>
-      <c r="D401" s="39"/>
-      <c r="E401" s="9"/>
-      <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H401" s="39"/>
-      <c r="I401" s="9"/>
-      <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40"/>
-      <c r="B402" s="20"/>
-      <c r="C402" s="13"/>
-      <c r="D402" s="39"/>
-      <c r="E402" s="9"/>
-      <c r="F402" s="20"/>
-      <c r="G402" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H402" s="39"/>
-      <c r="I402" s="9"/>
-      <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="40"/>
-      <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
-      <c r="D403" s="39"/>
-      <c r="E403" s="9"/>
-      <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H403" s="39"/>
-      <c r="I403" s="9"/>
-      <c r="J403" s="11"/>
-      <c r="K403" s="20"/>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40"/>
-      <c r="B404" s="20"/>
-      <c r="C404" s="13"/>
-      <c r="D404" s="39"/>
-      <c r="E404" s="9"/>
-      <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H404" s="39"/>
-      <c r="I404" s="9"/>
-      <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40"/>
-      <c r="B405" s="20"/>
-      <c r="C405" s="13"/>
-      <c r="D405" s="39"/>
-      <c r="E405" s="9"/>
-      <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H405" s="39"/>
-      <c r="I405" s="9"/>
-      <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40"/>
-      <c r="B406" s="20"/>
-      <c r="C406" s="13"/>
-      <c r="D406" s="39"/>
-      <c r="E406" s="9"/>
-      <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H406" s="39"/>
-      <c r="I406" s="9"/>
-      <c r="J406" s="11"/>
-      <c r="K406" s="20"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="40"/>
-      <c r="B407" s="20"/>
-      <c r="C407" s="13"/>
-      <c r="D407" s="39"/>
-      <c r="E407" s="9"/>
-      <c r="F407" s="20"/>
-      <c r="G407" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H407" s="39"/>
-      <c r="I407" s="9"/>
-      <c r="J407" s="11"/>
-      <c r="K407" s="20"/>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="40"/>
-      <c r="B408" s="20"/>
-      <c r="C408" s="13"/>
-      <c r="D408" s="39"/>
-      <c r="E408" s="9"/>
-      <c r="F408" s="20"/>
-      <c r="G408" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H408" s="39"/>
-      <c r="I408" s="9"/>
-      <c r="J408" s="11"/>
-      <c r="K408" s="20"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40"/>
-      <c r="B409" s="20"/>
-      <c r="C409" s="13"/>
-      <c r="D409" s="39"/>
-      <c r="E409" s="9"/>
-      <c r="F409" s="20"/>
-      <c r="G409" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H409" s="39"/>
-      <c r="I409" s="9"/>
-      <c r="J409" s="11"/>
-      <c r="K409" s="20"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40"/>
-      <c r="B410" s="20"/>
-      <c r="C410" s="13"/>
-      <c r="D410" s="39"/>
-      <c r="E410" s="9"/>
-      <c r="F410" s="20"/>
-      <c r="G410" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H410" s="39"/>
-      <c r="I410" s="9"/>
-      <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
-      <c r="B411" s="20"/>
-      <c r="C411" s="13"/>
-      <c r="D411" s="39"/>
-      <c r="E411" s="9"/>
-      <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H411" s="39"/>
-      <c r="I411" s="9"/>
-      <c r="J411" s="11"/>
-      <c r="K411" s="20"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40"/>
-      <c r="B412" s="20"/>
-      <c r="C412" s="13"/>
-      <c r="D412" s="39"/>
-      <c r="E412" s="9"/>
-      <c r="F412" s="20"/>
-      <c r="G412" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H412" s="39"/>
-      <c r="I412" s="9"/>
-      <c r="J412" s="11"/>
-      <c r="K412" s="20"/>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40"/>
-      <c r="B413" s="20"/>
-      <c r="C413" s="13"/>
-      <c r="D413" s="39"/>
-      <c r="E413" s="9"/>
-      <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H413" s="39"/>
-      <c r="I413" s="9"/>
-      <c r="J413" s="11"/>
-      <c r="K413" s="20"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40"/>
-      <c r="B414" s="20"/>
-      <c r="C414" s="13"/>
-      <c r="D414" s="39"/>
-      <c r="E414" s="9"/>
-      <c r="F414" s="20"/>
-      <c r="G414" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H414" s="39"/>
-      <c r="I414" s="9"/>
-      <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40"/>
-      <c r="B415" s="20"/>
-      <c r="C415" s="13"/>
-      <c r="D415" s="39"/>
-      <c r="E415" s="9"/>
-      <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H415" s="39"/>
-      <c r="I415" s="9"/>
-      <c r="J415" s="11"/>
-      <c r="K415" s="20"/>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40"/>
-      <c r="B416" s="20"/>
-      <c r="C416" s="13"/>
-      <c r="D416" s="39"/>
-      <c r="E416" s="9"/>
-      <c r="F416" s="20"/>
-      <c r="G416" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H416" s="39"/>
-      <c r="I416" s="9"/>
-      <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="40"/>
-      <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
-      <c r="D417" s="39"/>
-      <c r="E417" s="9"/>
-      <c r="F417" s="20"/>
-      <c r="G417" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H417" s="39"/>
-      <c r="I417" s="9"/>
-      <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40"/>
-      <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
-      <c r="D418" s="39"/>
-      <c r="E418" s="9"/>
-      <c r="F418" s="20"/>
-      <c r="G418" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H418" s="39"/>
-      <c r="I418" s="9"/>
-      <c r="J418" s="11"/>
-      <c r="K418" s="20"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="40"/>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
-      <c r="D419" s="39"/>
-      <c r="E419" s="9"/>
-      <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H419" s="39"/>
-      <c r="I419" s="9"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
-      <c r="B420" s="20"/>
-      <c r="C420" s="13"/>
-      <c r="D420" s="39"/>
-      <c r="E420" s="9"/>
-      <c r="F420" s="20"/>
-      <c r="G420" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H420" s="39"/>
-      <c r="I420" s="9"/>
-      <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40"/>
-      <c r="B421" s="20"/>
-      <c r="C421" s="13"/>
-      <c r="D421" s="39"/>
-      <c r="E421" s="9"/>
-      <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H421" s="39"/>
-      <c r="I421" s="9"/>
-      <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40"/>
-      <c r="B422" s="20"/>
-      <c r="C422" s="13"/>
-      <c r="D422" s="39"/>
-      <c r="E422" s="9"/>
-      <c r="F422" s="20"/>
-      <c r="G422" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H422" s="39"/>
-      <c r="I422" s="9"/>
-      <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40"/>
-      <c r="B423" s="20"/>
-      <c r="C423" s="13"/>
-      <c r="D423" s="39"/>
-      <c r="E423" s="9"/>
-      <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H423" s="39"/>
-      <c r="I423" s="9"/>
-      <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40"/>
-      <c r="B424" s="20"/>
-      <c r="C424" s="13"/>
-      <c r="D424" s="39"/>
-      <c r="E424" s="9"/>
-      <c r="F424" s="20"/>
-      <c r="G424" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H424" s="39"/>
-      <c r="I424" s="9"/>
-      <c r="J424" s="11"/>
-      <c r="K424" s="20"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40"/>
-      <c r="B425" s="20"/>
-      <c r="C425" s="13"/>
-      <c r="D425" s="39"/>
-      <c r="E425" s="9"/>
-      <c r="F425" s="20"/>
-      <c r="G425" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H425" s="39"/>
-      <c r="I425" s="9"/>
-      <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40"/>
-      <c r="B426" s="20"/>
-      <c r="C426" s="13"/>
-      <c r="D426" s="39"/>
-      <c r="E426" s="9"/>
-      <c r="F426" s="20"/>
-      <c r="G426" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H426" s="39"/>
-      <c r="I426" s="9"/>
-      <c r="J426" s="11"/>
-      <c r="K426" s="20"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40"/>
-      <c r="B427" s="20"/>
-      <c r="C427" s="13"/>
-      <c r="D427" s="39"/>
-      <c r="E427" s="9"/>
-      <c r="F427" s="20"/>
-      <c r="G427" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H427" s="39"/>
-      <c r="I427" s="9"/>
-      <c r="J427" s="11"/>
-      <c r="K427" s="20"/>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="40"/>
-      <c r="B428" s="20"/>
-      <c r="C428" s="13"/>
-      <c r="D428" s="39"/>
-      <c r="E428" s="9"/>
-      <c r="F428" s="20"/>
-      <c r="G428" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H428" s="39"/>
-      <c r="I428" s="9"/>
-      <c r="J428" s="11"/>
-      <c r="K428" s="20"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="40"/>
-      <c r="B429" s="20"/>
-      <c r="C429" s="13"/>
-      <c r="D429" s="39"/>
-      <c r="E429" s="9"/>
-      <c r="F429" s="20"/>
-      <c r="G429" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H429" s="39"/>
-      <c r="I429" s="9"/>
-      <c r="J429" s="11"/>
-      <c r="K429" s="20"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="40"/>
-      <c r="B430" s="20"/>
-      <c r="C430" s="13"/>
-      <c r="D430" s="39"/>
-      <c r="E430" s="9"/>
-      <c r="F430" s="20"/>
-      <c r="G430" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H430" s="39"/>
-      <c r="I430" s="9"/>
-      <c r="J430" s="11"/>
-      <c r="K430" s="20"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="40"/>
-      <c r="B431" s="20"/>
-      <c r="C431" s="13"/>
-      <c r="D431" s="39"/>
-      <c r="E431" s="9"/>
-      <c r="F431" s="20"/>
-      <c r="G431" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H431" s="39"/>
-      <c r="I431" s="9"/>
-      <c r="J431" s="11"/>
-      <c r="K431" s="20"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="40"/>
-      <c r="B432" s="20"/>
-      <c r="C432" s="13"/>
-      <c r="D432" s="39"/>
-      <c r="E432" s="9"/>
-      <c r="F432" s="20"/>
-      <c r="G432" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H432" s="39"/>
-      <c r="I432" s="9"/>
-      <c r="J432" s="11"/>
-      <c r="K432" s="20"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="40"/>
-      <c r="B433" s="20"/>
-      <c r="C433" s="13"/>
-      <c r="D433" s="39"/>
-      <c r="E433" s="9"/>
-      <c r="F433" s="20"/>
-      <c r="G433" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H433" s="39"/>
-      <c r="I433" s="9"/>
-      <c r="J433" s="11"/>
-      <c r="K433" s="20"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40"/>
-      <c r="B434" s="20"/>
-      <c r="C434" s="13"/>
-      <c r="D434" s="39"/>
-      <c r="E434" s="9"/>
-      <c r="F434" s="20"/>
-      <c r="G434" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H434" s="39"/>
-      <c r="I434" s="9"/>
-      <c r="J434" s="11"/>
-      <c r="K434" s="20"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="40"/>
-      <c r="B435" s="20"/>
-      <c r="C435" s="13"/>
-      <c r="D435" s="39"/>
-      <c r="E435" s="9"/>
-      <c r="F435" s="20"/>
-      <c r="G435" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H435" s="39"/>
-      <c r="I435" s="9"/>
-      <c r="J435" s="11"/>
-      <c r="K435" s="20"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="40"/>
-      <c r="B436" s="20"/>
-      <c r="C436" s="13"/>
-      <c r="D436" s="39"/>
-      <c r="E436" s="9"/>
-      <c r="F436" s="20"/>
-      <c r="G436" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H436" s="39"/>
-      <c r="I436" s="9"/>
-      <c r="J436" s="11"/>
-      <c r="K436" s="20"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="40"/>
-      <c r="B437" s="20"/>
-      <c r="C437" s="13"/>
-      <c r="D437" s="39"/>
-      <c r="E437" s="9"/>
-      <c r="F437" s="20"/>
-      <c r="G437" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H437" s="39"/>
-      <c r="I437" s="9"/>
-      <c r="J437" s="11"/>
-      <c r="K437" s="20"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="41"/>
-      <c r="B438" s="15"/>
-      <c r="C438" s="42"/>
-      <c r="D438" s="43"/>
-      <c r="E438" s="9"/>
-      <c r="F438" s="15"/>
-      <c r="G438" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H438" s="43"/>
-      <c r="I438" s="9"/>
-      <c r="J438" s="12"/>
-      <c r="K438" s="15"/>
+      <c r="J316" s="12"/>
+      <c r="K316" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11245,7 +9185,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>32.458000000000055</v>
+        <v>36.458000000000055</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="268">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1925,7 +1925,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A293" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="K299" sqref="K299"/>
+      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2090,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.168000000000063</v>
+        <v>20.418000000000063</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2100,7 +2100,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.289999999999992</v>
+        <v>17.539999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5872,7 +5872,7 @@
       <c r="D174" s="39"/>
       <c r="E174" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.168000000000063</v>
+        <v>20.418000000000063</v>
       </c>
       <c r="F174" s="20"/>
       <c r="G174" s="13" t="str">
@@ -8722,19 +8722,27 @@
       <c r="A299" s="40">
         <v>45108</v>
       </c>
-      <c r="B299" s="20"/>
-      <c r="C299" s="13"/>
+      <c r="B299" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H299" s="39"/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H299" s="39">
+        <v>1</v>
+      </c>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
-      <c r="K299" s="20"/>
+      <c r="K299" s="50">
+        <v>45111</v>
+      </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
@@ -9185,7 +9193,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>36.458000000000055</v>
+        <v>37.958000000000055</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/GARCIA, HEIZEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBE4E3-DB9A-497B-9BDA-E860412DB5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -902,7 +903,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1133,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,6 +1314,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1574,7 +1578,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1591,25 +1595,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K316" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K316" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1916,34 +1920,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A293" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="K300" sqref="K300"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1986,7 +1990,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2008,7 +2012,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2016,7 +2020,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2029,7 +2033,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2046,7 +2050,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2105,7 +2109,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2127,7 +2131,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>39965</v>
       </c>
@@ -2147,7 +2151,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>39995</v>
       </c>
@@ -2167,7 +2171,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40026</v>
       </c>
@@ -2187,7 +2191,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40057</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40087</v>
       </c>
@@ -2227,7 +2231,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40118</v>
       </c>
@@ -2247,7 +2251,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40148</v>
       </c>
@@ -2275,7 +2279,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2297,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40179</v>
       </c>
@@ -2313,7 +2317,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>40210</v>
       </c>
@@ -2333,7 +2337,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40238</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>40269</v>
       </c>
@@ -2373,7 +2377,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>40299</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>40330</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>40360</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -2461,7 +2465,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>40391</v>
       </c>
@@ -2483,7 +2487,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>40422</v>
       </c>
@@ -2507,7 +2511,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>40452</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>51</v>
@@ -2555,7 +2559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>240</v>
@@ -2575,7 +2579,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>40483</v>
       </c>
@@ -2599,7 +2603,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>40513</v>
       </c>
@@ -2625,7 +2629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -2641,7 +2645,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>58</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>40544</v>
       </c>
@@ -2679,7 +2683,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>40575</v>
       </c>
@@ -2699,7 +2703,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>40603</v>
       </c>
@@ -2719,7 +2723,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>40634</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>241</v>
@@ -2765,7 +2769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>40664</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>40695</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2835,7 +2839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>40725</v>
       </c>
@@ -2859,7 +2863,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40756</v>
       </c>
@@ -2883,7 +2887,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>40787</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -2931,7 +2935,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>69</v>
@@ -2953,7 +2957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>68</v>
@@ -2975,7 +2979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>40817</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>40734</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40848</v>
       </c>
@@ -3025,7 +3029,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40848</v>
       </c>
@@ -3051,7 +3055,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>40878</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -3099,7 +3103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>76</v>
@@ -3121,7 +3125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>78</v>
       </c>
@@ -3139,7 +3143,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>40909</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>59</v>
@@ -3185,7 +3189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -3207,7 +3211,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3223,7 +3227,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40940</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>40969</v>
       </c>
@@ -3269,7 +3273,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41000</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -3315,7 +3319,7 @@
         <v>41217</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -3337,7 +3341,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>82</v>
@@ -3359,7 +3363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>84</v>
@@ -3381,7 +3385,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>41030</v>
       </c>
@@ -3405,7 +3409,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>41061</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>51</v>
@@ -3451,7 +3455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>41091</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
@@ -3499,7 +3503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41122</v>
       </c>
@@ -3527,7 +3531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41153</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>41183</v>
       </c>
@@ -3573,7 +3577,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>40848</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>51</v>
@@ -3621,7 +3625,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>94</v>
@@ -3643,7 +3647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41244</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>51</v>
@@ -3691,7 +3695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>69</v>
@@ -3713,7 +3717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>99</v>
       </c>
@@ -3731,7 +3735,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>41275</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>59</v>
@@ -3777,7 +3781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>243</v>
@@ -3797,7 +3801,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -3821,7 +3825,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>84</v>
@@ -3843,7 +3847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>51</v>
@@ -3865,7 +3869,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>105</v>
@@ -3885,7 +3889,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41334</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>237</v>
@@ -3937,7 +3941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -3959,7 +3963,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41365</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>41278</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>97</v>
@@ -4009,7 +4013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>84</v>
@@ -4031,7 +4035,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41395</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>69</v>
@@ -4077,7 +4081,7 @@
       </c>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>41426</v>
       </c>
@@ -4101,7 +4105,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>41456</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>59</v>
@@ -4149,7 +4153,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>113</v>
@@ -4169,7 +4173,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>41487</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>180</v>
@@ -4221,7 +4225,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>117</v>
@@ -4241,7 +4245,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41518</v>
       </c>
@@ -4267,7 +4271,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41548</v>
       </c>
@@ -4291,7 +4295,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>41579</v>
       </c>
@@ -4319,7 +4323,7 @@
       </c>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>41609</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>122</v>
@@ -4371,7 +4375,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>123</v>
       </c>
@@ -4389,7 +4393,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>41640</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>245</v>
@@ -4433,7 +4437,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41671</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>41699</v>
       </c>
@@ -4485,7 +4489,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>41730</v>
       </c>
@@ -4511,7 +4515,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>41760</v>
       </c>
@@ -4537,7 +4541,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>41791</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>41821</v>
       </c>
@@ -4585,7 +4589,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>41852</v>
       </c>
@@ -4605,7 +4609,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>41883</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
         <v>41913</v>
       </c>
@@ -4659,7 +4663,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="15"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>41944</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>134</v>
@@ -4707,7 +4711,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>41974</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>137</v>
@@ -4755,7 +4759,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="48" t="s">
         <v>138</v>
       </c>
@@ -4773,7 +4777,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>42005</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>59</v>
@@ -4815,7 +4819,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>84</v>
@@ -4837,7 +4841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>141</v>
@@ -4859,7 +4863,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42036</v>
       </c>
@@ -4885,7 +4889,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42065</v>
       </c>
@@ -4911,7 +4915,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42095</v>
       </c>
@@ -4937,7 +4941,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42125</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>145</v>
@@ -4985,7 +4989,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42156</v>
       </c>
@@ -5011,7 +5015,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42186</v>
       </c>
@@ -5035,7 +5039,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42217</v>
       </c>
@@ -5061,7 +5065,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42248</v>
       </c>
@@ -5085,7 +5089,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42278</v>
       </c>
@@ -5109,7 +5113,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>42309</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>152</v>
@@ -5157,7 +5161,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42339</v>
       </c>
@@ -5183,7 +5187,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>154</v>
       </c>
@@ -5201,7 +5205,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>42370</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>156</v>
@@ -5247,7 +5251,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42371</v>
       </c>
@@ -5271,7 +5275,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42430</v>
       </c>
@@ -5295,7 +5299,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>42461</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>246</v>
@@ -5341,7 +5345,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>42491</v>
       </c>
@@ -5367,7 +5371,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>42522</v>
       </c>
@@ -5391,7 +5395,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>42552</v>
       </c>
@@ -5415,7 +5419,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>42583</v>
       </c>
@@ -5439,7 +5443,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>42614</v>
       </c>
@@ -5459,7 +5463,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>42644</v>
       </c>
@@ -5483,7 +5487,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>42675</v>
       </c>
@@ -5509,7 +5513,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>42705</v>
       </c>
@@ -5533,7 +5537,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23" t="s">
         <v>162</v>
       </c>
@@ -5551,7 +5555,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>42736</v>
       </c>
@@ -5571,7 +5575,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A160,1)</f>
         <v>42767</v>
@@ -5592,7 +5596,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f t="shared" ref="A162:A168" si="0">EDATE(A161,1)</f>
         <v>42795</v>
@@ -5613,7 +5617,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -5640,7 +5644,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>59</v>
@@ -5660,7 +5664,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>84</v>
@@ -5682,7 +5686,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>59</v>
@@ -5702,7 +5706,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>42856</v>
@@ -5723,7 +5727,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -5744,7 +5748,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>42917</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>51</v>
@@ -5792,7 +5796,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>42948</v>
@@ -5819,7 +5823,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>51</v>
@@ -5841,7 +5845,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>84</v>
@@ -5863,17 +5867,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39"/>
-      <c r="E174" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.418000000000063</v>
-      </c>
+      <c r="E174" s="9"/>
       <c r="F174" s="20"/>
       <c r="G174" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -5888,7 +5889,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A171,1)</f>
         <v>42979</v>
@@ -5909,7 +5910,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="50"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A179" si="1">EDATE(A175,1)</f>
         <v>43009</v>
@@ -5936,7 +5937,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>84</v>
@@ -5958,7 +5959,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>43040</v>
@@ -5985,7 +5986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6012,7 +6013,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>237</v>
@@ -6034,7 +6035,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23" t="s">
         <v>164</v>
       </c>
@@ -6052,7 +6053,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>43101</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>59</v>
@@ -6100,7 +6101,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>51</v>
@@ -6124,7 +6125,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>51</v>
@@ -6148,7 +6149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>43132</v>
       </c>
@@ -6168,7 +6169,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>43160</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -6216,7 +6217,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>59</v>
@@ -6236,7 +6237,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>43191</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>51</v>
@@ -6284,7 +6285,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>43221</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>59</v>
@@ -6330,7 +6331,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43252</v>
       </c>
@@ -6350,7 +6351,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>43282</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>69</v>
@@ -6398,7 +6399,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>175</v>
@@ -6420,7 +6421,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -6442,7 +6443,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>84</v>
@@ -6464,7 +6465,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>43313</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>43344</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>43374</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>180</v>
@@ -6564,7 +6565,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>43405</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>59</v>
@@ -6608,7 +6609,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>43435</v>
       </c>
@@ -6628,7 +6629,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="48" t="s">
         <v>183</v>
       </c>
@@ -6646,7 +6647,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>43466</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>84</v>
@@ -6692,7 +6693,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>43497</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>43525</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>51</v>
@@ -6766,7 +6767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>43556</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>51</v>
@@ -6814,7 +6815,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>84</v>
@@ -6836,7 +6837,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>43586</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>191</v>
@@ -6876,13 +6877,13 @@
         <v/>
       </c>
       <c r="H217" s="39"/>
-      <c r="I217" s="9">
+      <c r="I217" s="9"/>
+      <c r="J217" s="62">
         <v>7</v>
       </c>
-      <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>43617</v>
       </c>
@@ -6901,12 +6902,12 @@
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
-      <c r="J218" s="11"/>
+      <c r="J218" s="62"/>
       <c r="K218" s="20" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>43647</v>
       </c>
@@ -6927,12 +6928,12 @@
         <v>1</v>
       </c>
       <c r="I219" s="9"/>
-      <c r="J219" s="11"/>
+      <c r="J219" s="62"/>
       <c r="K219" s="20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>194</v>
@@ -6948,15 +6949,15 @@
         <v/>
       </c>
       <c r="H220" s="39"/>
-      <c r="I220" s="9">
+      <c r="I220" s="9"/>
+      <c r="J220" s="62">
         <v>10</v>
       </c>
-      <c r="J220" s="11"/>
       <c r="K220" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>196</v>
@@ -6978,7 +6979,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>84</v>
@@ -7000,7 +7001,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -7022,7 +7023,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>43678</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -7070,7 +7071,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>51</v>
@@ -7092,7 +7093,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>51</v>
@@ -7114,7 +7115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>43709</v>
       </c>
@@ -7134,7 +7135,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>43739</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -7182,7 +7183,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>43770</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>103</v>
@@ -7232,7 +7233,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>43800</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>103</v>
@@ -7280,7 +7281,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23" t="s">
         <v>206</v>
       </c>
@@ -7298,7 +7299,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>43831</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>59</v>
@@ -7346,7 +7347,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>209</v>
@@ -7368,7 +7369,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>101</v>
@@ -7388,7 +7389,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>212</v>
@@ -7408,7 +7409,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>43862</v>
       </c>
@@ -7428,7 +7429,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>43891</v>
       </c>
@@ -7448,7 +7449,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>43922</v>
       </c>
@@ -7468,7 +7469,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>43952</v>
       </c>
@@ -7488,7 +7489,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>43983</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>44013</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>216</v>
@@ -7560,7 +7561,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>44044</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>44075</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>219</v>
@@ -7630,7 +7631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>44105</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>44136</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -7696,7 +7697,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>44166</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="48" t="s">
         <v>223</v>
       </c>
@@ -7740,7 +7741,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>44197</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A256,1)</f>
         <v>44228</v>
@@ -7785,7 +7786,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A267" si="2">EDATE(A257,1)</f>
         <v>44256</v>
@@ -7806,7 +7807,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="2"/>
         <v>44287</v>
@@ -7827,7 +7828,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -7848,7 +7849,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -7869,7 +7870,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -7890,7 +7891,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -7911,7 +7912,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -7932,7 +7933,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>44470</v>
@@ -7953,7 +7954,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>44501</v>
@@ -7974,7 +7975,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="2"/>
         <v>44531</v>
@@ -8001,7 +8002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23" t="s">
         <v>226</v>
       </c>
@@ -8019,7 +8020,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>44562</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>44593</v>
       </c>
@@ -8063,7 +8064,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>44621</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>219</v>
@@ -8109,7 +8110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>44654</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>44682</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>219</v>
@@ -8183,7 +8184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>213</v>
@@ -8203,7 +8204,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>232</v>
@@ -8227,7 +8228,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>44713</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>213</v>
@@ -8273,7 +8274,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>44743</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>44774</v>
@@ -8320,7 +8321,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A284" si="3">EDATE(A281,1)</f>
         <v>44805</v>
@@ -8341,7 +8342,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="3"/>
         <v>44835</v>
@@ -8368,7 +8369,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>44866</v>
@@ -8395,7 +8396,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>51</v>
@@ -8417,7 +8418,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>44896</v>
@@ -8444,7 +8445,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>237</v>
@@ -8466,7 +8467,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>265</v>
       </c>
@@ -8484,7 +8485,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>44927</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>51</v>
@@ -8530,7 +8531,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>44958</v>
       </c>
@@ -8550,7 +8551,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>44986</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>51</v>
@@ -8598,7 +8599,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>51</v>
@@ -8620,7 +8621,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>45017</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>45047</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>45078</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>59</v>
@@ -8718,7 +8719,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>45108</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>45139</v>
       </c>
@@ -8762,7 +8763,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>45170</v>
       </c>
@@ -8780,7 +8781,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>45200</v>
       </c>
@@ -8798,7 +8799,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>45231</v>
       </c>
@@ -8816,7 +8817,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>45261</v>
       </c>
@@ -8834,7 +8835,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -8850,7 +8851,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -8866,7 +8867,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -8882,7 +8883,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -8898,7 +8899,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -8914,7 +8915,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -8930,7 +8931,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -8946,7 +8947,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -8962,7 +8963,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -8978,7 +8979,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -8994,7 +8995,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9010,7 +9011,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="41"/>
       <c r="B316" s="15"/>
       <c r="C316" s="42"/>
@@ -9041,10 +9042,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9067,28 +9068,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -9101,7 +9102,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9130,7 +9131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -9156,17 +9157,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>267</v>
       </c>
@@ -9190,7 +9191,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
         <v>37.958000000000055</v>
@@ -9221,7 +9222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9892,7 +9893,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9901,7 +9902,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9910,7 +9911,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9919,7 +9920,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9928,7 +9929,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9937,7 +9938,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9946,7 +9947,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9955,7 +9956,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9964,7 +9965,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9973,7 +9974,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9982,7 +9983,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9991,7 +9992,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10000,7 +10001,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10009,7 +10010,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10018,7 +10019,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10027,7 +10028,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10036,7 +10037,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10045,7 +10046,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10054,7 +10055,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10063,7 +10064,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10072,7 +10073,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10081,7 +10082,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10090,7 +10091,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10099,7 +10100,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10108,7 +10109,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10117,7 +10118,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10126,7 +10127,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10135,7 +10136,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10144,7 +10145,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
